--- a/性能对比表.xlsx
+++ b/性能对比表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2BE95C-8E58-6749-BF75-4CCA31733338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465817D-72F5-3A44-86AE-AC0156D5D74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="205">
   <si>
     <t>地面点     ×
 尺度归一 × 
@@ -789,15 +789,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exp10+BN+No_fc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exp24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Exp8+Enhance_Attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp4_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected no_final_fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected no_all_fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp12_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected _no_fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp10_local_BN+No_fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp10_all_BN+No_fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected _no_fc_bn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp12_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointNetVlad+Non_Local</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -833,14 +881,49 @@
       <t xml:space="preserve">
 19、Non-local对特征融合的影响，计算点云特征与图像特征在通道上的相关性，并用相关性增强或者组合特征。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp4_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selected no_fc</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+20、测试Non-local机制对点云特征提取的影响。
+21、测试Non-local机制对图像特征提取的影响。
+22、测试Non-local机制对图像与点云特征融合的影响。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_4+Non_local Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_4+Non_local Selected+bn_2_stg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp_26_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_6+Non_local_fusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp27_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_6
+Non_local_fusion
+Selected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +973,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1119,6 +1202,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1126,7 +1220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1267,6 +1361,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1601,34 +1722,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
@@ -1730,16 +1851,16 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="6" t="s">
         <v>48</v>
       </c>
@@ -1844,33 +1965,33 @@
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="100" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1902,93 +2023,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="66" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="64" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32">
-      <c r="A3" s="55"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" ht="48">
-      <c r="A4" s="55"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="13">
         <v>81.402000000000001</v>
       </c>
       <c r="E5" s="13">
         <v>83.561999999999998</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="13">
         <v>78.847999999999999</v>
       </c>
@@ -1997,21 +2118,21 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="13">
         <v>79.552000000000007</v>
       </c>
       <c r="E6" s="13">
         <v>82.742999999999995</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="13">
         <v>74.986000000000004</v>
       </c>
@@ -2020,21 +2141,21 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="13">
         <v>85.85</v>
       </c>
       <c r="E7" s="13">
         <v>86.643000000000001</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="55"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="13">
         <v>82.486000000000004</v>
       </c>
@@ -2043,17 +2164,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2081,113 +2202,122 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K36" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView tabSelected="1" topLeftCell="R28" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA54" sqref="AA54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="7" customWidth="1"/>
-    <col min="2" max="26" width="15.6640625" customWidth="1"/>
+    <col min="2" max="29" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-    </row>
-    <row r="2" spans="1:26" ht="300" customHeight="1">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+    </row>
+    <row r="2" spans="1:29" ht="400" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="B2" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="60"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="69"/>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="14" t="s">
         <v>63</v>
       </c>
@@ -2260,12 +2390,21 @@
       <c r="X4" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="Y4" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z4" s="34"/>
-    </row>
-    <row r="5" spans="1:26" s="7" customFormat="1">
+      <c r="Y4" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z4" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA4" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB4" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC4" s="34"/>
+    </row>
+    <row r="5" spans="1:29" s="7" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>61</v>
       </c>
@@ -2336,14 +2475,23 @@
         <v>180</v>
       </c>
       <c r="X5" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y5" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z5" s="34"/>
-    </row>
-    <row r="6" spans="1:26" s="7" customFormat="1">
+        <v>190</v>
+      </c>
+      <c r="Y5" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z5" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA5" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC5" s="34"/>
+    </row>
+    <row r="6" spans="1:29" s="7" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>86</v>
       </c>
@@ -2402,42 +2550,48 @@
       <c r="V6" s="47"/>
       <c r="W6" s="47"/>
       <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="34"/>
-    </row>
-    <row r="7" spans="1:26" s="7" customFormat="1">
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="34"/>
+    </row>
+    <row r="7" spans="1:29" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="64">
         <v>20</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2474,10 +2628,13 @@
       <c r="V8" s="47"/>
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="34"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="34"/>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -2516,10 +2673,13 @@
       <c r="V9" s="47"/>
       <c r="W9" s="47"/>
       <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="34"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="34"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -2554,10 +2714,13 @@
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
       <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="34"/>
-    </row>
-    <row r="11" spans="1:26" ht="16" thickBot="1">
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="34"/>
+    </row>
+    <row r="11" spans="1:29" ht="16" thickBot="1">
       <c r="A11" s="16" t="s">
         <v>56</v>
       </c>
@@ -2596,8 +2759,11 @@
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
-    </row>
-    <row r="12" spans="1:26" ht="16" thickBot="1">
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+    </row>
+    <row r="12" spans="1:29" ht="16" thickBot="1">
       <c r="A12" s="23" t="s">
         <v>63</v>
       </c>
@@ -2630,8 +2796,11 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
-    </row>
-    <row r="13" spans="1:26" s="7" customFormat="1" ht="16" thickBot="1">
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+    </row>
+    <row r="13" spans="1:29" s="7" customFormat="1" ht="16" thickBot="1">
       <c r="A13" s="23" t="s">
         <v>99</v>
       </c>
@@ -2664,40 +2833,46 @@
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
       <c r="Z13" s="39"/>
-    </row>
-    <row r="14" spans="1:26" ht="16" thickBot="1">
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+    </row>
+    <row r="14" spans="1:29" ht="16" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="64">
         <v>25</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="18" t="s">
         <v>53</v>
       </c>
@@ -2729,8 +2904,11 @@
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
@@ -2761,10 +2939,13 @@
       <c r="V16" s="47"/>
       <c r="W16" s="47"/>
       <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="34"/>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="34"/>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="14" t="s">
         <v>55</v>
       </c>
@@ -2795,10 +2976,13 @@
       <c r="V17" s="47"/>
       <c r="W17" s="47"/>
       <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="34"/>
-    </row>
-    <row r="18" spans="1:26" ht="16" thickBot="1">
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="34"/>
+    </row>
+    <row r="18" spans="1:29" ht="16" thickBot="1">
       <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
@@ -2831,8 +3015,11 @@
       <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
-    </row>
-    <row r="19" spans="1:26" ht="16" thickBot="1">
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+    </row>
+    <row r="19" spans="1:29" ht="16" thickBot="1">
       <c r="A19" s="23" t="s">
         <v>63</v>
       </c>
@@ -2869,8 +3056,11 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
-    </row>
-    <row r="20" spans="1:26" s="7" customFormat="1" ht="16" thickBot="1">
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+    </row>
+    <row r="20" spans="1:29" s="7" customFormat="1" ht="16" thickBot="1">
       <c r="A20" s="23" t="s">
         <v>99</v>
       </c>
@@ -2894,9 +3084,9 @@
       <c r="M20" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="Z20" s="21"/>
-    </row>
-    <row r="21" spans="1:26" ht="65" thickBot="1">
+      <c r="AC20" s="21"/>
+    </row>
+    <row r="21" spans="1:29" ht="65" thickBot="1">
       <c r="A21" s="28" t="s">
         <v>101</v>
       </c>
@@ -2932,9 +3122,12 @@
       <c r="W21" s="46"/>
       <c r="X21" s="46"/>
       <c r="Y21" s="46"/>
-      <c r="Z21" s="25"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="25"/>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
@@ -2969,8 +3162,11 @@
       <c r="X22" s="19"/>
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="14" t="s">
         <v>9</v>
       </c>
@@ -3005,10 +3201,13 @@
       <c r="V23" s="47"/>
       <c r="W23" s="47"/>
       <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="34"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="34"/>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="14" t="s">
         <v>55</v>
       </c>
@@ -3042,10 +3241,13 @@
       <c r="V24" s="47"/>
       <c r="W24" s="47"/>
       <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="34"/>
-    </row>
-    <row r="25" spans="1:26" ht="16" thickBot="1">
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="34"/>
+    </row>
+    <row r="25" spans="1:29" ht="16" thickBot="1">
       <c r="A25" s="14" t="s">
         <v>56</v>
       </c>
@@ -3079,9 +3281,12 @@
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
-      <c r="Z25" s="34"/>
-    </row>
-    <row r="26" spans="1:26" ht="16" thickBot="1">
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="34"/>
+    </row>
+    <row r="26" spans="1:29" ht="16" thickBot="1">
       <c r="A26" s="23" t="s">
         <v>63</v>
       </c>
@@ -3114,8 +3319,11 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
-    </row>
-    <row r="27" spans="1:26" ht="16" thickBot="1">
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+    </row>
+    <row r="27" spans="1:29" ht="16" thickBot="1">
       <c r="A27" s="23" t="s">
         <v>99</v>
       </c>
@@ -3147,9 +3355,12 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="21"/>
-    </row>
-    <row r="28" spans="1:26" ht="17" thickBot="1">
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="21"/>
+    </row>
+    <row r="28" spans="1:29" ht="17" thickBot="1">
       <c r="A28" s="28" t="s">
         <v>101</v>
       </c>
@@ -3181,9 +3392,12 @@
       <c r="W28" s="21"/>
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
-      <c r="Z28" s="26"/>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="26"/>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="18" t="s">
         <v>53</v>
       </c>
@@ -3216,8 +3430,11 @@
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="29" t="s">
         <v>9</v>
       </c>
@@ -3248,10 +3465,13 @@
       <c r="V30" s="47"/>
       <c r="W30" s="47"/>
       <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="34"/>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="34"/>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="29" t="s">
         <v>55</v>
       </c>
@@ -3282,10 +3502,13 @@
       <c r="V31" s="47"/>
       <c r="W31" s="47"/>
       <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="34"/>
-    </row>
-    <row r="32" spans="1:26" ht="16" thickBot="1">
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="34"/>
+    </row>
+    <row r="32" spans="1:29" ht="16" thickBot="1">
       <c r="A32" s="29" t="s">
         <v>56</v>
       </c>
@@ -3317,9 +3540,12 @@
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
-      <c r="Z32" s="34"/>
-    </row>
-    <row r="33" spans="1:26" ht="16" thickBot="1">
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="34"/>
+    </row>
+    <row r="33" spans="1:29" ht="16" thickBot="1">
       <c r="A33" s="23" t="s">
         <v>63</v>
       </c>
@@ -3352,8 +3578,11 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
-    </row>
-    <row r="34" spans="1:26" ht="16" thickBot="1">
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+    </row>
+    <row r="34" spans="1:29" ht="16" thickBot="1">
       <c r="A34" s="23" t="s">
         <v>99</v>
       </c>
@@ -3385,9 +3614,12 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
-      <c r="Z34" s="21"/>
-    </row>
-    <row r="35" spans="1:26" ht="17" thickBot="1">
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="21"/>
+    </row>
+    <row r="35" spans="1:29" ht="17" thickBot="1">
       <c r="A35" s="28" t="s">
         <v>101</v>
       </c>
@@ -3419,9 +3651,12 @@
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
-      <c r="Z35" s="26"/>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="26"/>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="18" t="s">
         <v>8</v>
       </c>
@@ -3454,8 +3689,11 @@
       <c r="X36" s="19"/>
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="31" t="s">
         <v>9</v>
       </c>
@@ -3486,10 +3724,13 @@
       <c r="V37" s="47"/>
       <c r="W37" s="47"/>
       <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="34"/>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="34"/>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="31" t="s">
         <v>55</v>
       </c>
@@ -3520,10 +3761,13 @@
       <c r="V38" s="47"/>
       <c r="W38" s="47"/>
       <c r="X38" s="47"/>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="34"/>
-    </row>
-    <row r="39" spans="1:26" ht="16" thickBot="1">
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="34"/>
+    </row>
+    <row r="39" spans="1:29" ht="16" thickBot="1">
       <c r="A39" s="31" t="s">
         <v>56</v>
       </c>
@@ -3556,8 +3800,11 @@
       <c r="X39" s="17"/>
       <c r="Y39" s="17"/>
       <c r="Z39" s="17"/>
-    </row>
-    <row r="40" spans="1:26" ht="16" thickBot="1">
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+    </row>
+    <row r="40" spans="1:29" ht="16" thickBot="1">
       <c r="A40" s="23" t="s">
         <v>63</v>
       </c>
@@ -3573,7 +3820,6 @@
       <c r="G40" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="H40" s="21"/>
       <c r="I40" s="40" t="s">
         <v>123</v>
       </c>
@@ -3601,9 +3847,12 @@
       <c r="W40" s="46"/>
       <c r="X40" s="46"/>
       <c r="Y40" s="46"/>
-      <c r="Z40" s="21"/>
-    </row>
-    <row r="41" spans="1:26" ht="16" thickBot="1">
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="21"/>
+    </row>
+    <row r="41" spans="1:29" ht="16" thickBot="1">
       <c r="A41" s="23" t="s">
         <v>99</v>
       </c>
@@ -3646,8 +3895,11 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
-    </row>
-    <row r="42" spans="1:26" ht="17" thickBot="1">
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+    </row>
+    <row r="42" spans="1:29" ht="17" thickBot="1">
       <c r="A42" s="28" t="s">
         <v>101</v>
       </c>
@@ -3692,8 +3944,11 @@
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
@@ -3738,8 +3993,11 @@
       <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" s="31" t="s">
         <v>9</v>
       </c>
@@ -3782,10 +4040,13 @@
       <c r="V44" s="47"/>
       <c r="W44" s="47"/>
       <c r="X44" s="47"/>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="34"/>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="56"/>
+      <c r="AC44" s="34"/>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" s="31" t="s">
         <v>55</v>
       </c>
@@ -3828,10 +4089,13 @@
       <c r="V45" s="47"/>
       <c r="W45" s="47"/>
       <c r="X45" s="47"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="34"/>
-    </row>
-    <row r="46" spans="1:26" ht="16" thickBot="1">
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="56"/>
+      <c r="AC45" s="34"/>
+    </row>
+    <row r="46" spans="1:29" ht="16" thickBot="1">
       <c r="A46" s="31" t="s">
         <v>56</v>
       </c>
@@ -3873,11 +4137,22 @@
       <c r="U46" s="47"/>
       <c r="V46" s="47"/>
       <c r="W46" s="47"/>
-      <c r="X46" s="47"/>
-      <c r="Y46" s="47"/>
-      <c r="Z46" s="34"/>
-    </row>
-    <row r="47" spans="1:26" ht="17" thickBot="1">
+      <c r="X46" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y46" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB46" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC46" s="34"/>
+    </row>
+    <row r="47" spans="1:29" ht="49" thickBot="1">
       <c r="A47" s="28" t="s">
         <v>143</v>
       </c>
@@ -3923,13 +4198,28 @@
       <c r="U47" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
+      <c r="V47" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="W47" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="X47" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y47" s="25" t="s">
+        <v>144</v>
+      </c>
       <c r="Z47" s="25"/>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB47" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC47" s="25"/>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" s="18" t="s">
         <v>8</v>
       </c>
@@ -3975,13 +4265,26 @@
       <c r="U48" s="19">
         <v>84.533000000000001</v>
       </c>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="19"/>
+      <c r="V48" s="19">
+        <v>85.061000000000007</v>
+      </c>
+      <c r="W48" s="19">
+        <v>84.388000000000005</v>
+      </c>
+      <c r="X48" s="19">
+        <v>84.45</v>
+      </c>
+      <c r="Y48" s="53">
+        <v>84.326999999999998</v>
+      </c>
       <c r="Z48" s="19"/>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" s="19">
+        <v>86.096999999999994</v>
+      </c>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" s="41" t="s">
         <v>9</v>
       </c>
@@ -4025,13 +4328,24 @@
       <c r="U49" s="47">
         <v>86.77</v>
       </c>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47"/>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="42"/>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="V49" s="47">
+        <v>78.55</v>
+      </c>
+      <c r="W49" s="47">
+        <v>86.162000000000006</v>
+      </c>
+      <c r="X49" s="47">
+        <v>88.649000000000001</v>
+      </c>
+      <c r="Y49" s="57">
+        <v>83.408000000000001</v>
+      </c>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="42"/>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" s="41" t="s">
         <v>55</v>
       </c>
@@ -4055,7 +4369,9 @@
       <c r="M50" s="43">
         <v>73.796000000000006</v>
       </c>
-      <c r="N50" s="45"/>
+      <c r="N50" s="45" t="s">
+        <v>49</v>
+      </c>
       <c r="O50" s="45"/>
       <c r="P50" s="45"/>
       <c r="Q50" s="45" t="s">
@@ -4067,17 +4383,26 @@
       <c r="S50" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="T50" s="47"/>
+      <c r="T50" s="47" t="s">
+        <v>49</v>
+      </c>
       <c r="U50" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="V50" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="W50" s="47" t="s">
+        <v>49</v>
+      </c>
       <c r="X50" s="47"/>
-      <c r="Y50" s="47"/>
-      <c r="Z50" s="42"/>
-    </row>
-    <row r="51" spans="1:26" ht="16" thickBot="1">
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="42"/>
+    </row>
+    <row r="51" spans="1:29" ht="16" thickBot="1">
       <c r="A51" s="41" t="s">
         <v>56</v>
       </c>
@@ -4121,13 +4446,24 @@
       <c r="U51" s="47">
         <v>90.736000000000004</v>
       </c>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="47"/>
-      <c r="Z51" s="42"/>
-    </row>
-    <row r="52" spans="1:26" ht="16" thickBot="1">
+      <c r="V51" s="47">
+        <v>90.552999999999997</v>
+      </c>
+      <c r="W51" s="50">
+        <v>90.555999999999997</v>
+      </c>
+      <c r="X51" s="47">
+        <v>91.994</v>
+      </c>
+      <c r="Y51" s="53">
+        <v>94.105999999999995</v>
+      </c>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="42"/>
+    </row>
+    <row r="52" spans="1:29" ht="16" thickBot="1">
       <c r="A52" s="23" t="s">
         <v>63</v>
       </c>
@@ -4135,7 +4471,7 @@
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
@@ -4144,7 +4480,9 @@
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
+      <c r="M52" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="N52" s="46"/>
       <c r="O52" s="46"/>
       <c r="P52" s="46"/>
@@ -4157,9 +4495,16 @@
       <c r="W52" s="46"/>
       <c r="X52" s="46"/>
       <c r="Y52" s="46"/>
-      <c r="Z52" s="21"/>
-    </row>
-    <row r="53" spans="1:26" ht="17" thickBot="1">
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB52" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC52" s="21"/>
+    </row>
+    <row r="53" spans="1:29" ht="49" thickBot="1">
       <c r="A53" s="28" t="s">
         <v>143</v>
       </c>
@@ -4167,16 +4512,18 @@
       <c r="C53" s="20"/>
       <c r="D53" s="24"/>
       <c r="E53" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F53" s="24"/>
+        <v>186</v>
+      </c>
+      <c r="F53" s="25"/>
       <c r="G53" s="25"/>
       <c r="H53" s="26"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
+      <c r="M53" s="25" t="s">
+        <v>189</v>
+      </c>
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
@@ -4190,15 +4537,24 @@
       <c r="X53" s="25"/>
       <c r="Y53" s="25"/>
       <c r="Z53" s="25"/>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB53" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC53" s="25"/>
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+      <c r="E54" s="19">
+        <v>85.033000000000001</v>
+      </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
@@ -4206,7 +4562,9 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
+      <c r="M54" s="19">
+        <v>84.793000000000006</v>
+      </c>
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
@@ -4220,116 +4578,432 @@
       <c r="X54" s="19"/>
       <c r="Y54" s="19"/>
       <c r="Z54" s="19"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="48" t="s">
+      <c r="AA54" s="19">
+        <v>84.167000000000002</v>
+      </c>
+      <c r="AB54" s="56">
+        <v>73.188999999999993</v>
+      </c>
+      <c r="AC54" s="19"/>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="49"/>
-      <c r="Z55" s="49"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="48" t="s">
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52">
+        <v>73.391000000000005</v>
+      </c>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="57">
+        <v>71.525999999999996</v>
+      </c>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="56"/>
+      <c r="AB55" s="56"/>
+      <c r="AC55" s="52"/>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
-      <c r="Y56" s="49"/>
-      <c r="Z56" s="49"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="48" t="s">
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52">
+        <v>71.742999999999995</v>
+      </c>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="56"/>
+      <c r="AB56" s="58">
+        <v>71578</v>
+      </c>
+      <c r="AC56" s="52"/>
+    </row>
+    <row r="57" spans="1:29" ht="16" thickBot="1">
+      <c r="A57" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="49"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="49"/>
-      <c r="T57" s="49"/>
-      <c r="U57" s="49"/>
-      <c r="V57" s="49"/>
-      <c r="W57" s="49"/>
-      <c r="X57" s="49"/>
-      <c r="Y57" s="49"/>
-      <c r="Z57" s="49"/>
-    </row>
-    <row r="63" spans="1:26">
-      <c r="B63" s="61" t="s">
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52">
+        <v>94.369</v>
+      </c>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52">
+        <v>91.597999999999999</v>
+      </c>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="53"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="56"/>
+      <c r="AB57" s="56">
+        <v>86.885000000000005</v>
+      </c>
+      <c r="AC57" s="52"/>
+    </row>
+    <row r="58" spans="1:29" ht="16" thickBot="1">
+      <c r="A58" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
+      <c r="X58" s="46"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46"/>
+      <c r="AA58" s="46"/>
+      <c r="AB58" s="46"/>
+      <c r="AC58" s="21"/>
+    </row>
+    <row r="59" spans="1:29" ht="33" thickBot="1">
+      <c r="A59" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="25"/>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="A60" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19">
+        <v>85.543999999999997</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19">
+        <v>84.34</v>
+      </c>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49">
+        <v>73.941000000000003</v>
+      </c>
+      <c r="F61" s="52"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49">
+        <v>72.64</v>
+      </c>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="53"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="56"/>
+      <c r="AB61" s="56"/>
+      <c r="AC61" s="49"/>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="52"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49">
+        <v>71.742999999999995</v>
+      </c>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="49"/>
+      <c r="X62" s="49"/>
+      <c r="Y62" s="53"/>
+      <c r="Z62" s="49"/>
+      <c r="AA62" s="56"/>
+      <c r="AB62" s="56"/>
+      <c r="AC62" s="49"/>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49">
+        <v>94.552999999999997</v>
+      </c>
+      <c r="F63" s="52"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49">
+        <v>92.790999999999997</v>
+      </c>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="56"/>
+      <c r="AB63" s="56"/>
+      <c r="AC63" s="49"/>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64" s="54"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="55"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="55"/>
+      <c r="Y64" s="55"/>
+      <c r="Z64" s="55"/>
+      <c r="AA64" s="55"/>
+      <c r="AB64" s="55"/>
+      <c r="AC64" s="55"/>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" s="54"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="55"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="55"/>
+      <c r="W65" s="55"/>
+      <c r="X65" s="55"/>
+      <c r="Y65" s="55"/>
+      <c r="Z65" s="55"/>
+      <c r="AA65" s="55"/>
+      <c r="AB65" s="55"/>
+      <c r="AC65" s="55"/>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="B71" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="B7:Z7"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="B7:AC7"/>
+    <mergeCell ref="B14:AC14"/>
+    <mergeCell ref="B3:AC3"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/性能对比表.xlsx
+++ b/性能对比表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465817D-72F5-3A44-86AE-AC0156D5D74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02A046-96D0-F943-938B-04E2ED3A8FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="264">
   <si>
     <t>地面点     ×
 尺度归一 × 
@@ -897,14 +897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exp6_4+Non_local Selected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp6_4+Non_local Selected+bn_2_stg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exp27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -924,6 +916,282 @@
     <t>Exp6_6
 Non_local_fusion
 Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_4+Non_local Selected/All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86.097/80.075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_4+Non_local Selected/All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84.167/78.401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_6
+Non_local_fusion+
+only train pc
+Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp27_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp27_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_6
+Non_local_fusion+
+only train fusion
+Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp27_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_6
+Non_local_fusion+
+only train img
+Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resnet_Non_local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resnet_Non_local_softmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp28_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp28_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resnet_Non_local_softmax_random_init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp28_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resnet_random_init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp_26_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp_26_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_4+Non_local_BN_ Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp28_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp28_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resnet_Non_local_BN_random_init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resnet_Non_local_BN_Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_4+Non_local_softmax Selected/All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.711/77.028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp27_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp27_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_6
+Non_local_fusion_BN+
+only train fusion
+Selected_All_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_6
+Non_local_fusion_BN+only train fusion
+Selected_fusion_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp 6_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resnet_Loss_No_fc
+Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp12_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected _no_fc
+resnet_pretain_no_fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.872/70.412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.191?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp27_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_6
+Non_local_fusion_BN+only train fusion
+Selected_fusion_loss_resnet_pre_train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、几何映射对性能提升几乎没有作用
+2、non_local机制基本不影响resnet与pointnetvald的性能，对pointnetvlad的性能略有提高，但对整体的融合性能目前没有取得一个较好的效果
+non_local对整体性能提升不大的原因可能是图像与点云的特征之间本身的相关性就没多大，需要一种策略让pointnet与resnet提取的特征在通道上能产生对应关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resnet_Loss_No_fc
+Selected
+resnet_1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp 6_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp27+pc_img_common_embedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet_1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_img
+common_embedding
+training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_pc+pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnet+pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_pc+resnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_img
+common_embedding
+training_rand_init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp29_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_img
+common_embedding
+training_max_pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp29_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_img
+common_embedding
+training_max_pool_img_to_pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp29_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不收敛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp29_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_img
+common_embedding_img_to_pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp29_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_img
+common_embedding_img_to_pc_l2_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,15 +1233,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1213,6 +1487,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1220,7 +1590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1375,12 +1745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,6 +1755,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1414,6 +1854,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1426,6 +1869,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1722,34 +2172,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
@@ -1851,16 +2301,16 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="6" t="s">
         <v>48</v>
       </c>
@@ -1965,33 +2415,33 @@
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" ht="100" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2023,93 +2473,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="90" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="92" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="90" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32">
-      <c r="A3" s="64"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:9" ht="48">
-      <c r="A4" s="64"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="13">
         <v>81.402000000000001</v>
       </c>
       <c r="E5" s="13">
         <v>83.561999999999998</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="64"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="13">
         <v>78.847999999999999</v>
       </c>
@@ -2118,21 +2568,21 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="13">
         <v>79.552000000000007</v>
       </c>
       <c r="E6" s="13">
         <v>82.742999999999995</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="65"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="13">
         <v>74.986000000000004</v>
       </c>
@@ -2141,21 +2591,21 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="13">
         <v>85.85</v>
       </c>
       <c r="E7" s="13">
         <v>86.643000000000001</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="13">
         <v>82.486000000000004</v>
       </c>
@@ -2164,17 +2614,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2202,122 +2652,128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC71"/>
+  <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R28" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA54" sqref="AA54"/>
+    <sheetView tabSelected="1" topLeftCell="V27" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="7" customWidth="1"/>
-    <col min="2" max="29" width="15.6640625" customWidth="1"/>
+    <col min="2" max="31" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-    </row>
-    <row r="2" spans="1:29" ht="400" customHeight="1">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+    </row>
+    <row r="2" spans="1:31" ht="400" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="69"/>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="96"/>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="14" t="s">
         <v>63</v>
       </c>
@@ -2396,15 +2852,21 @@
       <c r="Z4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="56" t="s">
+      <c r="AA4" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AB4" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC4" s="34"/>
-    </row>
-    <row r="5" spans="1:29" s="7" customFormat="1">
+      <c r="AB4" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC4" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD4" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE4" s="34"/>
+    </row>
+    <row r="5" spans="1:31" s="7" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>61</v>
       </c>
@@ -2483,15 +2945,21 @@
       <c r="Z5" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="AA5" s="56" t="s">
+      <c r="AA5" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AB5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC5" s="34"/>
-    </row>
-    <row r="6" spans="1:29" s="7" customFormat="1">
+      <c r="AB5" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC5" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE5" s="34"/>
+    </row>
+    <row r="6" spans="1:31" s="7" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>86</v>
       </c>
@@ -2552,46 +3020,52 @@
       <c r="X6" s="47"/>
       <c r="Y6" s="53"/>
       <c r="Z6" s="47"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="34"/>
-    </row>
-    <row r="7" spans="1:29" s="7" customFormat="1">
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE6" s="34"/>
+    </row>
+    <row r="7" spans="1:31" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="90">
         <v>20</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2630,11 +3104,13 @@
       <c r="X8" s="47"/>
       <c r="Y8" s="53"/>
       <c r="Z8" s="47"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="34"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="34"/>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -2675,11 +3151,13 @@
       <c r="X9" s="47"/>
       <c r="Y9" s="53"/>
       <c r="Z9" s="47"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="34"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="34"/>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -2716,11 +3194,15 @@
       <c r="X10" s="47"/>
       <c r="Y10" s="53"/>
       <c r="Z10" s="47"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="34"/>
-    </row>
-    <row r="11" spans="1:29" ht="16" thickBot="1">
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="66">
+        <v>71.509</v>
+      </c>
+      <c r="AE10" s="34"/>
+    </row>
+    <row r="11" spans="1:31" ht="16" thickBot="1">
       <c r="A11" s="16" t="s">
         <v>56</v>
       </c>
@@ -2762,8 +3244,9 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
-    </row>
-    <row r="12" spans="1:29" ht="16" thickBot="1">
+      <c r="AE11" s="17"/>
+    </row>
+    <row r="12" spans="1:31" ht="16" thickBot="1">
       <c r="A12" s="23" t="s">
         <v>63</v>
       </c>
@@ -2797,10 +3280,16 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
+      <c r="AB12" s="46" t="s">
+        <v>241</v>
+      </c>
       <c r="AC12" s="21"/>
-    </row>
-    <row r="13" spans="1:29" s="7" customFormat="1" ht="16" thickBot="1">
+      <c r="AD12" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE12" s="21"/>
+    </row>
+    <row r="13" spans="1:31" s="7" customFormat="1" ht="81" thickBot="1">
       <c r="A13" s="23" t="s">
         <v>99</v>
       </c>
@@ -2816,7 +3305,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="21" t="s">
         <v>158</v>
       </c>
@@ -2834,45 +3323,53 @@
       <c r="Y13" s="39"/>
       <c r="Z13" s="39"/>
       <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
+      <c r="AB13" s="25" t="s">
+        <v>242</v>
+      </c>
       <c r="AC13" s="39"/>
-    </row>
-    <row r="14" spans="1:29" ht="16" thickBot="1">
+      <c r="AD13" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE13" s="39"/>
+    </row>
+    <row r="14" spans="1:31" ht="16" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="90">
         <v>25</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="18" t="s">
         <v>53</v>
       </c>
@@ -2905,10 +3402,14 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
+      <c r="AB15" s="19">
+        <v>82.393000000000001</v>
+      </c>
       <c r="AC15" s="19"/>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
@@ -2941,11 +3442,15 @@
       <c r="X16" s="47"/>
       <c r="Y16" s="53"/>
       <c r="Z16" s="47"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="34"/>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54">
+        <v>71.221000000000004</v>
+      </c>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="34"/>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="14" t="s">
         <v>55</v>
       </c>
@@ -2978,11 +3483,13 @@
       <c r="X17" s="47"/>
       <c r="Y17" s="53"/>
       <c r="Z17" s="47"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="34"/>
-    </row>
-    <row r="18" spans="1:29" ht="16" thickBot="1">
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="34"/>
+    </row>
+    <row r="18" spans="1:31" ht="16" thickBot="1">
       <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
@@ -3016,10 +3523,14 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
+      <c r="AB18" s="17">
+        <v>91.563000000000002</v>
+      </c>
       <c r="AC18" s="17"/>
-    </row>
-    <row r="19" spans="1:29" ht="16" thickBot="1">
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+    </row>
+    <row r="19" spans="1:31" ht="16" thickBot="1">
       <c r="A19" s="23" t="s">
         <v>63</v>
       </c>
@@ -3059,8 +3570,10 @@
       <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
-    </row>
-    <row r="20" spans="1:29" s="7" customFormat="1" ht="16" thickBot="1">
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+    </row>
+    <row r="20" spans="1:31" s="7" customFormat="1" ht="16" thickBot="1">
       <c r="A20" s="23" t="s">
         <v>99</v>
       </c>
@@ -3084,9 +3597,15 @@
       <c r="M20" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AC20" s="21"/>
-    </row>
-    <row r="21" spans="1:29" ht="65" thickBot="1">
+      <c r="AB20" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD20" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE20" s="21"/>
+    </row>
+    <row r="21" spans="1:31" ht="81" thickBot="1">
       <c r="A21" s="28" t="s">
         <v>101</v>
       </c>
@@ -3124,10 +3643,16 @@
       <c r="Y21" s="46"/>
       <c r="Z21" s="46"/>
       <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="25"/>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AB21" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE21" s="25"/>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
@@ -3163,10 +3688,14 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
+      <c r="AB22" s="19">
+        <v>87.52</v>
+      </c>
       <c r="AC22" s="19"/>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="14" t="s">
         <v>9</v>
       </c>
@@ -3203,11 +3732,15 @@
       <c r="X23" s="47"/>
       <c r="Y23" s="53"/>
       <c r="Z23" s="47"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="34"/>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54">
+        <v>87.947999999999993</v>
+      </c>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="34"/>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="14" t="s">
         <v>55</v>
       </c>
@@ -3243,11 +3776,13 @@
       <c r="X24" s="47"/>
       <c r="Y24" s="53"/>
       <c r="Z24" s="47"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="34"/>
-    </row>
-    <row r="25" spans="1:29" ht="16" thickBot="1">
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="34"/>
+    </row>
+    <row r="25" spans="1:31" ht="16" thickBot="1">
       <c r="A25" s="14" t="s">
         <v>56</v>
       </c>
@@ -3283,10 +3818,14 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="34"/>
-    </row>
-    <row r="26" spans="1:29" ht="16" thickBot="1">
+      <c r="AB25" s="17">
+        <v>88.948999999999998</v>
+      </c>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="34"/>
+    </row>
+    <row r="26" spans="1:31" ht="16" thickBot="1">
       <c r="A26" s="23" t="s">
         <v>63</v>
       </c>
@@ -3320,16 +3859,24 @@
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-    </row>
-    <row r="27" spans="1:29" ht="16" thickBot="1">
+      <c r="AB26" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC26" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD26" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE26" s="71"/>
+    </row>
+    <row r="27" spans="1:31" ht="81" thickBot="1">
       <c r="A27" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20" t="s">
@@ -3357,16 +3904,24 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="21"/>
-    </row>
-    <row r="28" spans="1:29" ht="17" thickBot="1">
+      <c r="AB27" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC27" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD27" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE27" s="21"/>
+    </row>
+    <row r="28" spans="1:31" ht="17" thickBot="1">
       <c r="A28" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="25" t="s">
@@ -3395,9 +3950,13 @@
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
-      <c r="AC28" s="26"/>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE28" s="83"/>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="18" t="s">
         <v>53</v>
       </c>
@@ -3431,16 +3990,21 @@
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
+      <c r="AB29" s="19">
+        <v>87.808000000000007</v>
+      </c>
       <c r="AC29" s="19"/>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE29" s="80"/>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30" t="s">
@@ -3467,17 +4031,23 @@
       <c r="X30" s="47"/>
       <c r="Y30" s="53"/>
       <c r="Z30" s="47"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="34"/>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54">
+        <v>82.373999999999995</v>
+      </c>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE30" s="62"/>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30" t="s">
@@ -3504,17 +4074,21 @@
       <c r="X31" s="47"/>
       <c r="Y31" s="53"/>
       <c r="Z31" s="47"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="34"/>
-    </row>
-    <row r="32" spans="1:29" ht="16" thickBot="1">
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE31" s="34"/>
+    </row>
+    <row r="32" spans="1:31" ht="16" thickBot="1">
       <c r="A32" s="29" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30" t="s">
@@ -3542,10 +4116,16 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="34"/>
-    </row>
-    <row r="33" spans="1:29" ht="16" thickBot="1">
+      <c r="AB32" s="17">
+        <v>91.453999999999994</v>
+      </c>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE32" s="34"/>
+    </row>
+    <row r="33" spans="1:31" ht="16" thickBot="1">
       <c r="A33" s="23" t="s">
         <v>63</v>
       </c>
@@ -3579,10 +4159,18 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-    </row>
-    <row r="34" spans="1:29" ht="16" thickBot="1">
+      <c r="AB33" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC33" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD33" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE33" s="71"/>
+    </row>
+    <row r="34" spans="1:31" ht="16" thickBot="1">
       <c r="A34" s="23" t="s">
         <v>99</v>
       </c>
@@ -3616,10 +4204,9 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="21"/>
-    </row>
-    <row r="35" spans="1:29" ht="17" thickBot="1">
+      <c r="AE34" s="21"/>
+    </row>
+    <row r="35" spans="1:31" ht="81" thickBot="1">
       <c r="A35" s="28" t="s">
         <v>101</v>
       </c>
@@ -3652,11 +4239,19 @@
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="26"/>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC35" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD35" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE35" s="75"/>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="18" t="s">
         <v>8</v>
       </c>
@@ -3690,10 +4285,14 @@
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
       <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
+      <c r="AB36" s="78">
+        <v>70.183000000000007</v>
+      </c>
       <c r="AC36" s="19"/>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="31" t="s">
         <v>9</v>
       </c>
@@ -3726,11 +4325,17 @@
       <c r="X37" s="47"/>
       <c r="Y37" s="53"/>
       <c r="Z37" s="47"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="34"/>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="AA37" s="80"/>
+      <c r="AB37" s="56">
+        <v>70.957999999999998</v>
+      </c>
+      <c r="AC37" s="19">
+        <v>78.516999999999996</v>
+      </c>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="34"/>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="31" t="s">
         <v>55</v>
       </c>
@@ -3763,11 +4368,13 @@
       <c r="X38" s="47"/>
       <c r="Y38" s="53"/>
       <c r="Z38" s="47"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="34"/>
-    </row>
-    <row r="39" spans="1:29" ht="16" thickBot="1">
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="78"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="34"/>
+    </row>
+    <row r="39" spans="1:31" ht="16" thickBot="1">
       <c r="A39" s="31" t="s">
         <v>56</v>
       </c>
@@ -3800,11 +4407,15 @@
       <c r="X39" s="17"/>
       <c r="Y39" s="17"/>
       <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="79">
+        <v>86.49</v>
+      </c>
       <c r="AC39" s="17"/>
-    </row>
-    <row r="40" spans="1:29" ht="16" thickBot="1">
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+    </row>
+    <row r="40" spans="1:31" ht="16" thickBot="1">
       <c r="A40" s="23" t="s">
         <v>63</v>
       </c>
@@ -3848,11 +4459,21 @@
       <c r="X40" s="46"/>
       <c r="Y40" s="46"/>
       <c r="Z40" s="46"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="21"/>
-    </row>
-    <row r="41" spans="1:29" ht="16" thickBot="1">
+      <c r="AA40" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB40" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC40" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD40" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE40" s="71"/>
+    </row>
+    <row r="41" spans="1:31" ht="65" thickBot="1">
       <c r="A41" s="23" t="s">
         <v>99</v>
       </c>
@@ -3895,11 +4516,21 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-    </row>
-    <row r="42" spans="1:29" ht="17" thickBot="1">
+      <c r="AA41" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB41" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC41" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD41" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE41" s="68"/>
+    </row>
+    <row r="42" spans="1:31" ht="17" thickBot="1">
       <c r="A42" s="28" t="s">
         <v>101</v>
       </c>
@@ -3944,11 +4575,17 @@
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AA42" s="59">
+        <v>84.397000000000006</v>
+      </c>
+      <c r="AB42" s="67">
+        <v>58.756999999999998</v>
+      </c>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="100"/>
+      <c r="AE42" s="69"/>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
@@ -3994,10 +4631,16 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
       <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AB43" s="18">
+        <v>73.132000000000005</v>
+      </c>
+      <c r="AC43" s="19">
+        <v>67.543000000000006</v>
+      </c>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="31" t="s">
         <v>9</v>
       </c>
@@ -4042,11 +4685,13 @@
       <c r="X44" s="47"/>
       <c r="Y44" s="53"/>
       <c r="Z44" s="47"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="56"/>
-      <c r="AC44" s="34"/>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="34"/>
+    </row>
+    <row r="45" spans="1:31" ht="16" thickBot="1">
       <c r="A45" s="31" t="s">
         <v>55</v>
       </c>
@@ -4091,11 +4736,15 @@
       <c r="X45" s="47"/>
       <c r="Y45" s="53"/>
       <c r="Z45" s="47"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="56"/>
-      <c r="AC45" s="34"/>
-    </row>
-    <row r="46" spans="1:29" ht="16" thickBot="1">
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="57">
+        <v>79.055999999999997</v>
+      </c>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="66"/>
+      <c r="AE45" s="34"/>
+    </row>
+    <row r="46" spans="1:31" ht="16" thickBot="1">
       <c r="A46" s="31" t="s">
         <v>56</v>
       </c>
@@ -4144,15 +4793,21 @@
         <v>182</v>
       </c>
       <c r="Z46" s="47"/>
-      <c r="AA46" s="56" t="s">
+      <c r="AA46" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AB46" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC46" s="34"/>
-    </row>
-    <row r="47" spans="1:29" ht="49" thickBot="1">
+      <c r="AB46" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC46" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD46" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE46" s="34"/>
+    </row>
+    <row r="47" spans="1:31" ht="65" thickBot="1">
       <c r="A47" s="28" t="s">
         <v>143</v>
       </c>
@@ -4212,14 +4867,20 @@
       </c>
       <c r="Z47" s="25"/>
       <c r="AA47" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB47" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC47" s="25"/>
-    </row>
-    <row r="48" spans="1:29">
+        <v>203</v>
+      </c>
+      <c r="AB47" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC47" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD47" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE47" s="77"/>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="18" t="s">
         <v>8</v>
       </c>
@@ -4278,13 +4939,17 @@
         <v>84.326999999999998</v>
       </c>
       <c r="Z48" s="19"/>
-      <c r="AA48" s="19">
-        <v>86.096999999999994</v>
-      </c>
-      <c r="AB48" s="19"/>
+      <c r="AA48" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB48" s="19">
+        <v>62.731999999999999</v>
+      </c>
       <c r="AC48" s="19"/>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="19"/>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" s="41" t="s">
         <v>9</v>
       </c>
@@ -4337,15 +5002,20 @@
       <c r="X49" s="47">
         <v>88.649000000000001</v>
       </c>
-      <c r="Y49" s="57">
+      <c r="Y49" s="55">
         <v>83.408000000000001</v>
       </c>
       <c r="Z49" s="47"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="42"/>
-    </row>
-    <row r="50" spans="1:29">
+      <c r="AA49" s="54"/>
+      <c r="AB49" s="54">
+        <v>70.171999999999997</v>
+      </c>
+      <c r="AC49" s="58">
+        <v>70.171999999999997</v>
+      </c>
+      <c r="AE49" s="42"/>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" s="41" t="s">
         <v>55</v>
       </c>
@@ -4398,11 +5068,13 @@
       <c r="X50" s="47"/>
       <c r="Y50" s="53"/>
       <c r="Z50" s="47"/>
-      <c r="AA50" s="56"/>
-      <c r="AB50" s="56"/>
-      <c r="AC50" s="42"/>
-    </row>
-    <row r="51" spans="1:29" ht="16" thickBot="1">
+      <c r="AA50" s="54"/>
+      <c r="AB50" s="54"/>
+      <c r="AC50" s="58"/>
+      <c r="AD50" s="66"/>
+      <c r="AE50" s="42"/>
+    </row>
+    <row r="51" spans="1:31" ht="16" thickBot="1">
       <c r="A51" s="41" t="s">
         <v>56</v>
       </c>
@@ -4459,11 +5131,15 @@
         <v>94.105999999999995</v>
       </c>
       <c r="Z51" s="47"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="42"/>
-    </row>
-    <row r="52" spans="1:29" ht="16" thickBot="1">
+      <c r="AA51" s="54"/>
+      <c r="AB51" s="54">
+        <v>81.378</v>
+      </c>
+      <c r="AC51" s="58"/>
+      <c r="AD51" s="66"/>
+      <c r="AE51" s="42"/>
+    </row>
+    <row r="52" spans="1:31" ht="16" thickBot="1">
       <c r="A52" s="23" t="s">
         <v>63</v>
       </c>
@@ -4474,7 +5150,9 @@
         <v>184</v>
       </c>
       <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="G52" s="20" t="s">
+        <v>235</v>
+      </c>
       <c r="H52" s="21"/>
       <c r="I52" s="40"/>
       <c r="J52" s="20"/>
@@ -4497,14 +5175,18 @@
       <c r="Y52" s="46"/>
       <c r="Z52" s="46"/>
       <c r="AA52" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB52" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="AB52" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC52" s="21"/>
-    </row>
-    <row r="53" spans="1:29" ht="49" thickBot="1">
+      <c r="AC52" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="21"/>
+    </row>
+    <row r="53" spans="1:31" ht="49" thickBot="1">
       <c r="A53" s="28" t="s">
         <v>143</v>
       </c>
@@ -4514,9 +5196,11 @@
       <c r="E53" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="H53" s="75"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
@@ -4538,14 +5222,18 @@
       <c r="Y53" s="25"/>
       <c r="Z53" s="25"/>
       <c r="AA53" s="25" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AB53" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC53" s="25"/>
-    </row>
-    <row r="54" spans="1:29">
+        <v>202</v>
+      </c>
+      <c r="AC53" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+    </row>
+    <row r="54" spans="1:31" ht="16">
       <c r="A54" s="18" t="s">
         <v>8</v>
       </c>
@@ -4556,7 +5244,9 @@
         <v>85.033000000000001</v>
       </c>
       <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="G54" s="84" t="s">
+        <v>240</v>
+      </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
@@ -4578,15 +5268,17 @@
       <c r="X54" s="19"/>
       <c r="Y54" s="19"/>
       <c r="Z54" s="19"/>
-      <c r="AA54" s="19">
-        <v>84.167000000000002</v>
-      </c>
-      <c r="AB54" s="56">
+      <c r="AA54" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB54" s="54">
         <v>73.188999999999993</v>
       </c>
       <c r="AC54" s="19"/>
-    </row>
-    <row r="55" spans="1:29">
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" s="51" t="s">
         <v>9</v>
       </c>
@@ -4597,13 +5289,15 @@
         <v>73.391000000000005</v>
       </c>
       <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
+      <c r="G55" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
       <c r="K55" s="52"/>
       <c r="L55" s="52"/>
-      <c r="M55" s="57">
+      <c r="M55" s="55">
         <v>71.525999999999996</v>
       </c>
       <c r="N55" s="52"/>
@@ -4619,11 +5313,17 @@
       <c r="X55" s="52"/>
       <c r="Y55" s="53"/>
       <c r="Z55" s="52"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="52"/>
-    </row>
-    <row r="56" spans="1:29">
+      <c r="AA55" s="54"/>
+      <c r="AB55" s="56">
+        <v>71578</v>
+      </c>
+      <c r="AC55" s="58">
+        <v>65.972999999999999</v>
+      </c>
+      <c r="AD55" s="66"/>
+      <c r="AE55" s="52"/>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" s="51" t="s">
         <v>55</v>
       </c>
@@ -4634,7 +5334,7 @@
         <v>49</v>
       </c>
       <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
+      <c r="G56" s="62"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
@@ -4656,13 +5356,12 @@
       <c r="X56" s="52"/>
       <c r="Y56" s="53"/>
       <c r="Z56" s="52"/>
-      <c r="AA56" s="56"/>
-      <c r="AB56" s="58">
-        <v>71578</v>
-      </c>
-      <c r="AC56" s="52"/>
-    </row>
-    <row r="57" spans="1:29" ht="16" thickBot="1">
+      <c r="AA56" s="54"/>
+      <c r="AC56" s="56"/>
+      <c r="AD56" s="56"/>
+      <c r="AE56" s="52"/>
+    </row>
+    <row r="57" spans="1:31" ht="16" thickBot="1">
       <c r="A57" s="51" t="s">
         <v>56</v>
       </c>
@@ -4673,7 +5372,7 @@
         <v>94.369</v>
       </c>
       <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
       <c r="J57" s="52"/>
@@ -4695,13 +5394,15 @@
       <c r="X57" s="52"/>
       <c r="Y57" s="53"/>
       <c r="Z57" s="52"/>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="56">
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54">
         <v>86.885000000000005</v>
       </c>
-      <c r="AC57" s="52"/>
-    </row>
-    <row r="58" spans="1:29" ht="16" thickBot="1">
+      <c r="AC57" s="58"/>
+      <c r="AD57" s="66"/>
+      <c r="AE57" s="52"/>
+    </row>
+    <row r="58" spans="1:31" ht="16" thickBot="1">
       <c r="A58" s="23" t="s">
         <v>63</v>
       </c>
@@ -4712,7 +5413,9 @@
         <v>185</v>
       </c>
       <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+      <c r="G58" s="20" t="s">
+        <v>245</v>
+      </c>
       <c r="H58" s="21"/>
       <c r="I58" s="40"/>
       <c r="J58" s="20"/>
@@ -4734,11 +5437,19 @@
       <c r="X58" s="46"/>
       <c r="Y58" s="46"/>
       <c r="Z58" s="46"/>
-      <c r="AA58" s="46"/>
-      <c r="AB58" s="46"/>
-      <c r="AC58" s="21"/>
-    </row>
-    <row r="59" spans="1:29" ht="33" thickBot="1">
+      <c r="AA58" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB58" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC58" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD58" s="46"/>
+      <c r="AE58" s="21"/>
+    </row>
+    <row r="59" spans="1:31" ht="65" thickBot="1">
       <c r="A59" s="28" t="s">
         <v>143</v>
       </c>
@@ -4749,7 +5460,9 @@
         <v>187</v>
       </c>
       <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
+      <c r="G59" s="76" t="s">
+        <v>244</v>
+      </c>
       <c r="H59" s="26"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
@@ -4771,11 +5484,19 @@
       <c r="X59" s="25"/>
       <c r="Y59" s="25"/>
       <c r="Z59" s="25"/>
-      <c r="AA59" s="25"/>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="25"/>
-    </row>
-    <row r="60" spans="1:29">
+      <c r="AA59" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB59" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC59" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD59" s="25"/>
+      <c r="AE59" s="25"/>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" s="18" t="s">
         <v>8</v>
       </c>
@@ -4786,7 +5507,6 @@
         <v>85.543999999999997</v>
       </c>
       <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
@@ -4808,11 +5528,17 @@
       <c r="X60" s="19"/>
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
+      <c r="AA60" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB60" s="57">
+        <v>75.936999999999998</v>
+      </c>
       <c r="AC60" s="19"/>
-    </row>
-    <row r="61" spans="1:29">
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" s="48" t="s">
         <v>9</v>
       </c>
@@ -4823,7 +5549,9 @@
         <v>73.941000000000003</v>
       </c>
       <c r="F61" s="52"/>
-      <c r="G61" s="49"/>
+      <c r="G61" s="84">
+        <v>71.509</v>
+      </c>
       <c r="H61" s="49"/>
       <c r="I61" s="49"/>
       <c r="J61" s="49"/>
@@ -4845,11 +5573,17 @@
       <c r="X61" s="49"/>
       <c r="Y61" s="53"/>
       <c r="Z61" s="49"/>
-      <c r="AA61" s="56"/>
-      <c r="AB61" s="56"/>
-      <c r="AC61" s="49"/>
-    </row>
-    <row r="62" spans="1:29">
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="57">
+        <v>70.034000000000006</v>
+      </c>
+      <c r="AC61" s="58">
+        <v>5.5949999999999998</v>
+      </c>
+      <c r="AD61" s="66"/>
+      <c r="AE61" s="49"/>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" s="48" t="s">
         <v>55</v>
       </c>
@@ -4860,7 +5594,7 @@
         <v>49</v>
       </c>
       <c r="F62" s="52"/>
-      <c r="G62" s="49"/>
+      <c r="G62" s="62"/>
       <c r="H62" s="49"/>
       <c r="I62" s="49"/>
       <c r="J62" s="49"/>
@@ -4882,11 +5616,15 @@
       <c r="X62" s="49"/>
       <c r="Y62" s="53"/>
       <c r="Z62" s="49"/>
-      <c r="AA62" s="56"/>
-      <c r="AB62" s="56"/>
-      <c r="AC62" s="49"/>
-    </row>
-    <row r="63" spans="1:29">
+      <c r="AA62" s="54"/>
+      <c r="AB62" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC62" s="56"/>
+      <c r="AD62" s="56"/>
+      <c r="AE62" s="49"/>
+    </row>
+    <row r="63" spans="1:31" ht="16" thickBot="1">
       <c r="A63" s="48" t="s">
         <v>56</v>
       </c>
@@ -4897,7 +5635,7 @@
         <v>94.552999999999997</v>
       </c>
       <c r="F63" s="52"/>
-      <c r="G63" s="49"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="49"/>
       <c r="I63" s="49"/>
       <c r="J63" s="49"/>
@@ -4919,91 +5657,497 @@
       <c r="X63" s="49"/>
       <c r="Y63" s="53"/>
       <c r="Z63" s="49"/>
-      <c r="AA63" s="56"/>
-      <c r="AB63" s="56"/>
-      <c r="AC63" s="49"/>
-    </row>
-    <row r="64" spans="1:29">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="55"/>
-      <c r="W64" s="55"/>
-      <c r="X64" s="55"/>
-      <c r="Y64" s="55"/>
-      <c r="Z64" s="55"/>
-      <c r="AA64" s="55"/>
-      <c r="AB64" s="55"/>
-      <c r="AC64" s="55"/>
-    </row>
-    <row r="65" spans="1:29">
-      <c r="A65" s="54"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
-      <c r="W65" s="55"/>
-      <c r="X65" s="55"/>
-      <c r="Y65" s="55"/>
-      <c r="Z65" s="55"/>
-      <c r="AA65" s="55"/>
-      <c r="AB65" s="55"/>
-      <c r="AC65" s="55"/>
-    </row>
-    <row r="71" spans="1:29">
-      <c r="B71" s="70" t="s">
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="57">
+        <v>87.584000000000003</v>
+      </c>
+      <c r="AC63" s="58"/>
+      <c r="AD63" s="66"/>
+      <c r="AE63" s="49"/>
+    </row>
+    <row r="64" spans="1:31" ht="16" thickBot="1">
+      <c r="A64" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="46"/>
+      <c r="AB64" s="46"/>
+      <c r="AC64" s="46"/>
+      <c r="AD64" s="46"/>
+      <c r="AE64" s="21"/>
+    </row>
+    <row r="65" spans="1:31" ht="49" thickBot="1">
+      <c r="A65" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="25"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="25"/>
+      <c r="Z65" s="25"/>
+      <c r="AA65" s="25"/>
+      <c r="AB65" s="25"/>
+      <c r="AC65" s="25"/>
+      <c r="AD65" s="25"/>
+      <c r="AE65" s="25"/>
+    </row>
+    <row r="66" spans="1:31">
+      <c r="A66" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="73">
+        <v>84.075999999999993</v>
+      </c>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="62"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="19"/>
+    </row>
+    <row r="67" spans="1:31">
+      <c r="A67" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="74">
+        <v>85.992000000000004</v>
+      </c>
+      <c r="N67" s="62"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="62"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="62"/>
+      <c r="U67" s="62"/>
+      <c r="V67" s="62"/>
+      <c r="W67" s="62"/>
+      <c r="X67" s="62"/>
+      <c r="Y67" s="62"/>
+      <c r="Z67" s="62"/>
+      <c r="AA67" s="62"/>
+      <c r="AB67" s="62"/>
+      <c r="AC67" s="62"/>
+      <c r="AD67" s="66"/>
+      <c r="AE67" s="62"/>
+    </row>
+    <row r="68" spans="1:31">
+      <c r="A68" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="74">
+        <v>73.997</v>
+      </c>
+      <c r="N68" s="62"/>
+      <c r="O68" s="62"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="62"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="62"/>
+      <c r="U68" s="62"/>
+      <c r="V68" s="62"/>
+      <c r="W68" s="62"/>
+      <c r="X68" s="62"/>
+      <c r="Y68" s="62"/>
+      <c r="Z68" s="62"/>
+      <c r="AA68" s="62"/>
+      <c r="AB68" s="56"/>
+      <c r="AC68" s="56"/>
+      <c r="AD68" s="56"/>
+      <c r="AE68" s="62"/>
+    </row>
+    <row r="69" spans="1:31" ht="16" thickBot="1">
+      <c r="A69" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="74">
+        <v>92.799000000000007</v>
+      </c>
+      <c r="N69" s="62"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="62"/>
+      <c r="U69" s="62"/>
+      <c r="V69" s="62"/>
+      <c r="W69" s="62"/>
+      <c r="X69" s="62"/>
+      <c r="Y69" s="62"/>
+      <c r="Z69" s="62"/>
+      <c r="AA69" s="62"/>
+      <c r="AB69" s="62"/>
+      <c r="AC69" s="62"/>
+      <c r="AD69" s="66"/>
+      <c r="AE69" s="62"/>
+    </row>
+    <row r="70" spans="1:31" ht="16" thickBot="1">
+      <c r="A70" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="46"/>
+      <c r="Y70" s="46"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="46"/>
+      <c r="AB70" s="46"/>
+      <c r="AC70" s="46"/>
+      <c r="AD70" s="46"/>
+      <c r="AE70" s="21"/>
+    </row>
+    <row r="71" spans="1:31" ht="16" thickBot="1">
+      <c r="A71" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25">
+        <v>92.444999999999993</v>
+      </c>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="25"/>
+      <c r="AC71" s="25"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+    </row>
+    <row r="72" spans="1:31">
+      <c r="A72" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="66"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="19"/>
+    </row>
+    <row r="73" spans="1:31">
+      <c r="A73" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="74">
+        <v>93.977000000000004</v>
+      </c>
+      <c r="N73" s="66"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="66"/>
+      <c r="Q73" s="66"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="66"/>
+      <c r="U73" s="66"/>
+      <c r="V73" s="66"/>
+      <c r="W73" s="66"/>
+      <c r="X73" s="66"/>
+      <c r="Y73" s="66"/>
+      <c r="Z73" s="66"/>
+      <c r="AA73" s="66"/>
+      <c r="AB73" s="66"/>
+      <c r="AC73" s="66"/>
+      <c r="AD73" s="66"/>
+      <c r="AE73" s="66"/>
+    </row>
+    <row r="74" spans="1:31">
+      <c r="A74" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
+      <c r="V74" s="66"/>
+      <c r="W74" s="66"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="66"/>
+      <c r="Z74" s="66"/>
+      <c r="AA74" s="66"/>
+      <c r="AB74" s="56"/>
+      <c r="AC74" s="56"/>
+      <c r="AD74" s="56"/>
+      <c r="AE74" s="66"/>
+    </row>
+    <row r="75" spans="1:31">
+      <c r="A75" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="66"/>
+      <c r="M75" s="74">
+        <v>83.424999999999997</v>
+      </c>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="66"/>
+      <c r="Q75" s="66"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="66"/>
+      <c r="T75" s="66"/>
+      <c r="U75" s="66"/>
+      <c r="V75" s="66"/>
+      <c r="W75" s="66"/>
+      <c r="X75" s="66"/>
+      <c r="Y75" s="66"/>
+      <c r="Z75" s="66"/>
+      <c r="AA75" s="66"/>
+      <c r="AB75" s="66"/>
+      <c r="AC75" s="66"/>
+      <c r="AD75" s="66"/>
+      <c r="AE75" s="66"/>
+    </row>
+    <row r="77" spans="1:31">
+      <c r="B77" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="97"/>
+    </row>
+    <row r="78" spans="1:31" ht="192" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="93"/>
+      <c r="I78" s="93"/>
+      <c r="J78" s="93"/>
+      <c r="K78" s="93"/>
+      <c r="L78" s="93"/>
+      <c r="M78" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="B7:AC7"/>
-    <mergeCell ref="B14:AC14"/>
-    <mergeCell ref="B3:AC3"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B2:AC2"/>
+  <mergeCells count="7">
+    <mergeCell ref="B78:M78"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="B7:AE7"/>
+    <mergeCell ref="B14:AE14"/>
+    <mergeCell ref="B3:AE3"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/性能对比表.xlsx
+++ b/性能对比表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02A046-96D0-F943-938B-04E2ED3A8FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435BAEA-43B3-3347-85AE-CC510C54B4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="286">
   <si>
     <t>地面点     ×
 尺度归一 × 
@@ -1194,6 +1194,98 @@
 common_embedding_img_to_pc_l2_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Exp29_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_6
+Non_local_fusion_BN+only train fusion
+Selected_common_embedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp6_6
+Non_local_fusion_BN+only train fusion_all_var
+Selected_common_embedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp29_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp19_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_train_resnet&amp;local_fusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_train_resnet&amp;local_fusion_all_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp19_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_img_pc_reweight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_img_pc_reweight_fusion_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp4_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp4_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_img_pc_reweight_all_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_intra_feat_reweight_all_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp4_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp4_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_inter_feat_reweight_all_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_inter_feat_reweight_refer_to_vlad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp4_9/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_img_reweight_refer_to_vlad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp4_11/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1202,7 +1294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,6 +1324,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1247,7 +1347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1583,6 +1683,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1590,7 +1699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1831,6 +1940,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1857,6 +1994,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1869,13 +2009,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2172,34 +2305,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
@@ -2301,16 +2434,16 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
       <c r="J6" s="6" t="s">
         <v>48</v>
       </c>
@@ -2415,33 +2548,33 @@
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
     </row>
     <row r="11" spans="1:10" ht="100" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2473,93 +2606,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="100" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="102" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="100" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32">
-      <c r="A3" s="90"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" ht="48">
-      <c r="A4" s="90"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="13">
         <v>81.402000000000001</v>
       </c>
       <c r="E5" s="13">
         <v>83.561999999999998</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="13">
         <v>78.847999999999999</v>
       </c>
@@ -2568,21 +2701,21 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="13">
         <v>79.552000000000007</v>
       </c>
       <c r="E6" s="13">
         <v>82.742999999999995</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="91"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="13">
         <v>74.986000000000004</v>
       </c>
@@ -2591,21 +2724,21 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="13">
         <v>85.85</v>
       </c>
       <c r="E7" s="13">
         <v>86.643000000000001</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="90"/>
+      <c r="G7" s="100"/>
       <c r="H7" s="13">
         <v>82.486000000000004</v>
       </c>
@@ -2614,17 +2747,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2654,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V27" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2665,113 +2798,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
     </row>
     <row r="2" spans="1:31" ht="400" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="96"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="107"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="14" t="s">
@@ -3032,38 +3165,38 @@
       <c r="A7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="100">
         <v>20</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="14" t="s">
@@ -3253,7 +3386,9 @@
       <c r="B12" s="22"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="93" t="s">
+        <v>280</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20" t="s">
         <v>98</v>
@@ -3296,7 +3431,9 @@
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="E13" s="94" t="s">
+        <v>281</v>
+      </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38" t="s">
         <v>103</v>
@@ -3306,7 +3443,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="28" t="s">
         <v>158</v>
       </c>
       <c r="N13" s="39"/>
@@ -3327,7 +3464,7 @@
         <v>242</v>
       </c>
       <c r="AC13" s="39"/>
-      <c r="AD13" s="99" t="s">
+      <c r="AD13" s="86" t="s">
         <v>249</v>
       </c>
       <c r="AE13" s="39"/>
@@ -3336,38 +3473,38 @@
       <c r="A14" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="100">
         <v>25</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="100"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="18" t="s">
@@ -3376,7 +3513,9 @@
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="19">
+        <v>85.536000000000001</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19">
         <v>74.06</v>
@@ -3416,7 +3555,9 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15">
+        <v>95.02</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15">
         <v>78.108000000000004</v>
@@ -3496,7 +3637,9 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17">
+        <v>93.427000000000007</v>
+      </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17">
         <v>81.522000000000006</v>
@@ -3539,7 +3682,9 @@
       <c r="D19" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="93" t="s">
+        <v>279</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20" t="s">
         <v>100</v>
@@ -3582,7 +3727,6 @@
       <c r="D20" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20" t="s">
         <v>103</v>
@@ -3611,11 +3755,13 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="E21" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="27"/>
       <c r="G21" s="25" t="s">
         <v>96</v>
       </c>
@@ -3647,7 +3793,7 @@
         <v>233</v>
       </c>
       <c r="AC21" s="46"/>
-      <c r="AD21" s="99" t="s">
+      <c r="AD21" s="86" t="s">
         <v>253</v>
       </c>
       <c r="AE21" s="25"/>
@@ -3659,7 +3805,9 @@
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="19">
+        <v>86.117999999999995</v>
+      </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19">
         <v>75.486000000000004</v>
@@ -3692,7 +3840,9 @@
         <v>87.52</v>
       </c>
       <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
+      <c r="AD22" s="19">
+        <v>76.180000000000007</v>
+      </c>
       <c r="AE22" s="19"/>
     </row>
     <row r="23" spans="1:31">
@@ -3704,7 +3854,9 @@
       <c r="D23" s="15">
         <v>76.135000000000005</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="15">
+        <v>73.167000000000002</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15">
         <v>80.05</v>
@@ -3737,7 +3889,9 @@
         <v>87.947999999999993</v>
       </c>
       <c r="AC23" s="58"/>
-      <c r="AD23" s="66"/>
+      <c r="AD23" s="66">
+        <v>68.825000000000003</v>
+      </c>
       <c r="AE23" s="34"/>
     </row>
     <row r="24" spans="1:31">
@@ -3779,7 +3933,9 @@
       <c r="AA24" s="54"/>
       <c r="AB24" s="54"/>
       <c r="AC24" s="58"/>
-      <c r="AD24" s="66"/>
+      <c r="AD24" s="66">
+        <v>17.382999999999999</v>
+      </c>
       <c r="AE24" s="34"/>
     </row>
     <row r="25" spans="1:31" ht="16" thickBot="1">
@@ -3789,7 +3945,9 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="15">
+        <v>93.344999999999999</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15">
         <v>84.614999999999995</v>
@@ -3822,7 +3980,9 @@
         <v>88.948999999999998</v>
       </c>
       <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
+      <c r="AD25" s="17">
+        <v>20.321999999999999</v>
+      </c>
       <c r="AE25" s="34"/>
     </row>
     <row r="26" spans="1:31" ht="16" thickBot="1">
@@ -3832,7 +3992,9 @@
       <c r="B26" s="22"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20" t="s">
         <v>107</v>
@@ -3877,7 +4039,9 @@
       <c r="B27" s="22"/>
       <c r="C27" s="20"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20" t="s">
         <v>102</v>
@@ -3910,7 +4074,7 @@
       <c r="AC27" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="AD27" s="99" t="s">
+      <c r="AD27" s="86" t="s">
         <v>255</v>
       </c>
       <c r="AE27" s="21"/>
@@ -4177,7 +4341,9 @@
       <c r="B34" s="22"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
+      <c r="E34" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20" t="s">
         <v>102</v>
@@ -4213,7 +4379,9 @@
       <c r="B35" s="27"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="E35" s="25" t="s">
+        <v>274</v>
+      </c>
       <c r="F35" s="24"/>
       <c r="G35" s="25" t="s">
         <v>114</v>
@@ -4582,7 +4750,7 @@
         <v>58.756999999999998</v>
       </c>
       <c r="AC42" s="70"/>
-      <c r="AD42" s="100"/>
+      <c r="AD42" s="87"/>
       <c r="AE42" s="69"/>
     </row>
     <row r="43" spans="1:31">
@@ -4782,7 +4950,9 @@
         <v>87.326999999999998</v>
       </c>
       <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
+      <c r="T46" s="47" t="s">
+        <v>173</v>
+      </c>
       <c r="U46" s="47"/>
       <c r="V46" s="47"/>
       <c r="W46" s="47"/>
@@ -4946,7 +5116,9 @@
         <v>62.731999999999999</v>
       </c>
       <c r="AC48" s="19"/>
-      <c r="AD48" s="66"/>
+      <c r="AD48" s="88">
+        <v>78.646000000000001</v>
+      </c>
       <c r="AE48" s="19"/>
     </row>
     <row r="49" spans="1:31">
@@ -5013,6 +5185,9 @@
       <c r="AC49" s="58">
         <v>70.171999999999997</v>
       </c>
+      <c r="AD49" s="8">
+        <v>62.491</v>
+      </c>
       <c r="AE49" s="42"/>
     </row>
     <row r="50" spans="1:31">
@@ -5071,7 +5246,9 @@
       <c r="AA50" s="54"/>
       <c r="AB50" s="54"/>
       <c r="AC50" s="58"/>
-      <c r="AD50" s="66"/>
+      <c r="AD50" s="85">
+        <v>19.407</v>
+      </c>
       <c r="AE50" s="42"/>
     </row>
     <row r="51" spans="1:31" ht="16" thickBot="1">
@@ -5136,7 +5313,9 @@
         <v>81.378</v>
       </c>
       <c r="AC51" s="58"/>
-      <c r="AD51" s="66"/>
+      <c r="AD51" s="66">
+        <v>19.809000000000001</v>
+      </c>
       <c r="AE51" s="42"/>
     </row>
     <row r="52" spans="1:31" ht="16" thickBot="1">
@@ -5167,7 +5346,9 @@
       <c r="Q52" s="46"/>
       <c r="R52" s="46"/>
       <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
+      <c r="T52" s="89" t="s">
+        <v>268</v>
+      </c>
       <c r="U52" s="46"/>
       <c r="V52" s="46"/>
       <c r="W52" s="46"/>
@@ -5183,10 +5364,12 @@
       <c r="AC52" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="AD52" s="46"/>
+      <c r="AD52" s="46" t="s">
+        <v>264</v>
+      </c>
       <c r="AE52" s="21"/>
     </row>
-    <row r="53" spans="1:31" ht="49" thickBot="1">
+    <row r="53" spans="1:31" ht="81" thickBot="1">
       <c r="A53" s="28" t="s">
         <v>143</v>
       </c>
@@ -5214,7 +5397,9 @@
       <c r="Q53" s="25"/>
       <c r="R53" s="25"/>
       <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
+      <c r="T53" s="25" t="s">
+        <v>269</v>
+      </c>
       <c r="U53" s="25"/>
       <c r="V53" s="25"/>
       <c r="W53" s="25"/>
@@ -5230,7 +5415,9 @@
       <c r="AC53" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="AD53" s="25"/>
+      <c r="AD53" s="25" t="s">
+        <v>265</v>
+      </c>
       <c r="AE53" s="25"/>
     </row>
     <row r="54" spans="1:31" ht="16">
@@ -5261,7 +5448,9 @@
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
+      <c r="T54" s="19">
+        <v>84.448999999999998</v>
+      </c>
       <c r="U54" s="19"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
@@ -5275,7 +5464,9 @@
         <v>73.188999999999993</v>
       </c>
       <c r="AC54" s="19"/>
-      <c r="AD54" s="19"/>
+      <c r="AD54" s="90">
+        <v>77.063000000000002</v>
+      </c>
       <c r="AE54" s="19"/>
     </row>
     <row r="55" spans="1:31">
@@ -5306,7 +5497,9 @@
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
       <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
+      <c r="T55" s="52">
+        <v>80.838999999999999</v>
+      </c>
       <c r="U55" s="52"/>
       <c r="V55" s="52"/>
       <c r="W55" s="52"/>
@@ -5320,7 +5513,9 @@
       <c r="AC55" s="58">
         <v>65.972999999999999</v>
       </c>
-      <c r="AD55" s="66"/>
+      <c r="AD55" s="66">
+        <v>63.548999999999999</v>
+      </c>
       <c r="AE55" s="52"/>
     </row>
     <row r="56" spans="1:31">
@@ -5387,7 +5582,9 @@
       <c r="Q57" s="52"/>
       <c r="R57" s="52"/>
       <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
+      <c r="T57" s="52">
+        <v>92.587999999999994</v>
+      </c>
       <c r="U57" s="52"/>
       <c r="V57" s="52"/>
       <c r="W57" s="52"/>
@@ -5399,7 +5596,9 @@
         <v>86.885000000000005</v>
       </c>
       <c r="AC57" s="58"/>
-      <c r="AD57" s="66"/>
+      <c r="AD57" s="19">
+        <v>89.183999999999997</v>
+      </c>
       <c r="AE57" s="52"/>
     </row>
     <row r="58" spans="1:31" ht="16" thickBot="1">
@@ -5430,7 +5629,9 @@
       <c r="Q58" s="46"/>
       <c r="R58" s="46"/>
       <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
+      <c r="T58" s="89" t="s">
+        <v>271</v>
+      </c>
       <c r="U58" s="46"/>
       <c r="V58" s="46"/>
       <c r="W58" s="46"/>
@@ -5446,10 +5647,12 @@
       <c r="AC58" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="AD58" s="46"/>
+      <c r="AD58" s="46" t="s">
+        <v>267</v>
+      </c>
       <c r="AE58" s="21"/>
     </row>
-    <row r="59" spans="1:31" ht="65" thickBot="1">
+    <row r="59" spans="1:31" ht="97" thickBot="1">
       <c r="A59" s="28" t="s">
         <v>143</v>
       </c>
@@ -5477,7 +5680,9 @@
       <c r="Q59" s="25"/>
       <c r="R59" s="25"/>
       <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
+      <c r="T59" s="25" t="s">
+        <v>270</v>
+      </c>
       <c r="U59" s="25"/>
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
@@ -5493,7 +5698,9 @@
       <c r="AC59" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AD59" s="25"/>
+      <c r="AD59" s="25" t="s">
+        <v>266</v>
+      </c>
       <c r="AE59" s="25"/>
     </row>
     <row r="60" spans="1:31">
@@ -5521,7 +5728,9 @@
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
+      <c r="T60" s="19">
+        <v>84.424000000000007</v>
+      </c>
       <c r="U60" s="19"/>
       <c r="V60" s="19"/>
       <c r="W60" s="19"/>
@@ -5535,7 +5744,9 @@
         <v>75.936999999999998</v>
       </c>
       <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
+      <c r="AD60" s="19">
+        <v>79.391999999999996</v>
+      </c>
       <c r="AE60" s="19"/>
     </row>
     <row r="61" spans="1:31">
@@ -5566,7 +5777,9 @@
       <c r="Q61" s="49"/>
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
+      <c r="T61" s="49">
+        <v>54.21</v>
+      </c>
       <c r="U61" s="49"/>
       <c r="V61" s="49"/>
       <c r="W61" s="49"/>
@@ -5580,7 +5793,9 @@
       <c r="AC61" s="58">
         <v>5.5949999999999998</v>
       </c>
-      <c r="AD61" s="66"/>
+      <c r="AD61" s="66">
+        <v>66.406999999999996</v>
+      </c>
       <c r="AE61" s="49"/>
     </row>
     <row r="62" spans="1:31">
@@ -5650,7 +5865,9 @@
       <c r="Q63" s="49"/>
       <c r="R63" s="49"/>
       <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
+      <c r="T63" s="49">
+        <v>90.466999999999999</v>
+      </c>
       <c r="U63" s="49"/>
       <c r="V63" s="49"/>
       <c r="W63" s="49"/>
@@ -5662,7 +5879,9 @@
         <v>87.584000000000003</v>
       </c>
       <c r="AC63" s="58"/>
-      <c r="AD63" s="66"/>
+      <c r="AD63" s="66">
+        <v>89.391000000000005</v>
+      </c>
       <c r="AE63" s="49"/>
     </row>
     <row r="64" spans="1:31" ht="16" thickBot="1">
@@ -5672,7 +5891,9 @@
       <c r="B64" s="22"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
+      <c r="E64" s="20" t="s">
+        <v>272</v>
+      </c>
       <c r="F64" s="46"/>
       <c r="G64" s="28"/>
       <c r="H64" s="71"/>
@@ -5709,7 +5930,9 @@
       <c r="B65" s="27"/>
       <c r="C65" s="20"/>
       <c r="D65" s="24"/>
-      <c r="E65" s="25"/>
+      <c r="E65" s="25" t="s">
+        <v>273</v>
+      </c>
       <c r="F65" s="25"/>
       <c r="G65" s="25"/>
       <c r="H65" s="26"/>
@@ -5746,7 +5969,9 @@
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
+      <c r="E66" s="7">
+        <v>84.56</v>
+      </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
@@ -5783,7 +6008,9 @@
       <c r="B67" s="62"/>
       <c r="C67" s="62"/>
       <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
+      <c r="E67" s="91">
+        <v>78.230999999999995</v>
+      </c>
       <c r="F67" s="62"/>
       <c r="G67" s="62"/>
       <c r="H67" s="62"/>
@@ -5820,7 +6047,7 @@
       <c r="B68" s="62"/>
       <c r="C68" s="62"/>
       <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="62"/>
       <c r="G68" s="62"/>
       <c r="H68" s="62"/>
@@ -5857,7 +6084,9 @@
       <c r="B69" s="62"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
+      <c r="E69" s="92">
+        <v>93.902000000000001</v>
+      </c>
       <c r="F69" s="62"/>
       <c r="G69" s="62"/>
       <c r="H69" s="62"/>
@@ -5893,8 +6122,12 @@
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
+      <c r="D70" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>283</v>
+      </c>
       <c r="F70" s="46"/>
       <c r="G70" s="28"/>
       <c r="H70" s="71"/>
@@ -5924,14 +6157,18 @@
       <c r="AD70" s="46"/>
       <c r="AE70" s="21"/>
     </row>
-    <row r="71" spans="1:31" ht="16" thickBot="1">
+    <row r="71" spans="1:31" ht="49" thickBot="1">
       <c r="A71" s="28" t="s">
         <v>143</v>
       </c>
       <c r="B71" s="27"/>
       <c r="C71" s="20"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="25"/>
+      <c r="D71" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>282</v>
+      </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
       <c r="H71" s="26"/>
@@ -5967,8 +6204,12 @@
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="D72" s="19">
+        <v>86.727000000000004</v>
+      </c>
+      <c r="E72" s="66">
+        <v>85.891000000000005</v>
+      </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
@@ -6004,8 +6245,12 @@
       </c>
       <c r="B73" s="66"/>
       <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
+      <c r="D73" s="66">
+        <v>79.317999999999998</v>
+      </c>
+      <c r="E73" s="66">
+        <v>72.055000000000007</v>
+      </c>
       <c r="F73" s="66"/>
       <c r="G73" s="66"/>
       <c r="H73" s="66"/>
@@ -6042,7 +6287,6 @@
       <c r="B74" s="66"/>
       <c r="C74" s="66"/>
       <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
       <c r="F74" s="66"/>
       <c r="G74" s="66"/>
       <c r="H74" s="66"/>
@@ -6078,8 +6322,12 @@
       </c>
       <c r="B75" s="66"/>
       <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
+      <c r="D75" s="66">
+        <v>95.376000000000005</v>
+      </c>
+      <c r="E75" s="19">
+        <v>92.817999999999998</v>
+      </c>
       <c r="F75" s="66"/>
       <c r="G75" s="66"/>
       <c r="H75" s="66"/>
@@ -6110,34 +6358,34 @@
       <c r="AE75" s="66"/>
     </row>
     <row r="77" spans="1:31">
-      <c r="B77" s="97" t="s">
+      <c r="B77" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="97"/>
+      <c r="C77" s="108"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
     </row>
     <row r="78" spans="1:31" ht="192" customHeight="1">
       <c r="A78" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="93" t="s">
+      <c r="B78" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="93"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="93"/>
-      <c r="J78" s="93"/>
-      <c r="K78" s="93"/>
-      <c r="L78" s="93"/>
-      <c r="M78" s="93"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="103"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="103"/>
+      <c r="J78" s="103"/>
+      <c r="K78" s="103"/>
+      <c r="L78" s="103"/>
+      <c r="M78" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/性能对比表.xlsx
+++ b/性能对比表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435BAEA-43B3-3347-85AE-CC510C54B4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9BC7C2-3B2B-DF41-A180-4FBE56C4C9A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="290">
   <si>
     <t>地面点     ×
 尺度归一 × 
@@ -1284,6 +1284,22 @@
   </si>
   <si>
     <t>Exp4_11/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_core_point_vlad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp30_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_and_learning_core_point_vlad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1699,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1965,6 +1981,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2293,7 +2333,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2305,34 +2345,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
@@ -2434,16 +2474,16 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
       <c r="J6" s="6" t="s">
         <v>48</v>
       </c>
@@ -2548,33 +2588,33 @@
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" ht="100" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2594,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2606,93 +2646,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="108" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="110" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="108" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32">
-      <c r="A3" s="100"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:9" ht="48">
-      <c r="A4" s="100"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="13">
         <v>81.402000000000001</v>
       </c>
       <c r="E5" s="13">
         <v>83.561999999999998</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="100"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="13">
         <v>78.847999999999999</v>
       </c>
@@ -2701,21 +2741,21 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="13">
         <v>79.552000000000007</v>
       </c>
       <c r="E6" s="13">
         <v>82.742999999999995</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="101"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="13">
         <v>74.986000000000004</v>
       </c>
@@ -2724,21 +2764,21 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="13">
         <v>85.85</v>
       </c>
       <c r="E7" s="13">
         <v>86.643000000000001</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="100"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="13">
         <v>82.486000000000004</v>
       </c>
@@ -2747,17 +2787,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2785,128 +2825,131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE78"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="Y2" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="7" customWidth="1"/>
-    <col min="2" max="31" width="15.6640625" customWidth="1"/>
+    <col min="2" max="32" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:32">
+      <c r="A1" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-    </row>
-    <row r="2" spans="1:31" ht="400" customHeight="1">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+    </row>
+    <row r="2" spans="1:32" ht="400" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="107"/>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="115"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="14" t="s">
         <v>63</v>
       </c>
@@ -2997,9 +3040,12 @@
       <c r="AD4" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="AE4" s="34"/>
-    </row>
-    <row r="5" spans="1:31" s="7" customFormat="1">
+      <c r="AE4" s="95" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF4" s="34"/>
+    </row>
+    <row r="5" spans="1:32" s="7" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>61</v>
       </c>
@@ -3090,9 +3136,12 @@
       <c r="AD5" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="AE5" s="34"/>
-    </row>
-    <row r="6" spans="1:31" s="7" customFormat="1">
+      <c r="AE5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF5" s="34"/>
+    </row>
+    <row r="6" spans="1:32" s="7" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>86</v>
       </c>
@@ -3159,46 +3208,48 @@
       <c r="AD6" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="AE6" s="34"/>
-    </row>
-    <row r="7" spans="1:31" s="7" customFormat="1">
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="34"/>
+    </row>
+    <row r="7" spans="1:32" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="108">
         <v>20</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -3241,9 +3292,12 @@
       <c r="AB8" s="54"/>
       <c r="AC8" s="58"/>
       <c r="AD8" s="66"/>
-      <c r="AE8" s="34"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AE8" s="7">
+        <v>86.034000000000006</v>
+      </c>
+      <c r="AF8" s="34"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -3288,9 +3342,12 @@
       <c r="AB9" s="54"/>
       <c r="AC9" s="58"/>
       <c r="AD9" s="66"/>
-      <c r="AE9" s="34"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AE9" s="7">
+        <v>72.051000000000002</v>
+      </c>
+      <c r="AF9" s="34"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -3333,9 +3390,10 @@
       <c r="AD10" s="66">
         <v>71.509</v>
       </c>
-      <c r="AE10" s="34"/>
-    </row>
-    <row r="11" spans="1:31" ht="16" thickBot="1">
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="34"/>
+    </row>
+    <row r="11" spans="1:32" ht="16" thickBot="1">
       <c r="A11" s="16" t="s">
         <v>56</v>
       </c>
@@ -3377,9 +3435,12 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
-      <c r="AE11" s="17"/>
-    </row>
-    <row r="12" spans="1:31" ht="16" thickBot="1">
+      <c r="AE11" s="97">
+        <v>89.837999999999994</v>
+      </c>
+      <c r="AF11" s="17"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" thickBot="1">
       <c r="A12" s="23" t="s">
         <v>63</v>
       </c>
@@ -3422,9 +3483,12 @@
       <c r="AD12" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="AE12" s="21"/>
-    </row>
-    <row r="13" spans="1:31" s="7" customFormat="1" ht="81" thickBot="1">
+      <c r="AE12" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF12" s="21"/>
+    </row>
+    <row r="13" spans="1:32" s="7" customFormat="1" ht="81" thickBot="1">
       <c r="A13" s="23" t="s">
         <v>99</v>
       </c>
@@ -3467,46 +3531,50 @@
       <c r="AD13" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="AE13" s="39"/>
-    </row>
-    <row r="14" spans="1:31" ht="16" thickBot="1">
+      <c r="AE13" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF13" s="39"/>
+    </row>
+    <row r="14" spans="1:32" ht="16" thickBot="1">
       <c r="A14" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B14" s="108">
         <v>25</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="108"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="108"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="18" t="s">
         <v>53</v>
       </c>
@@ -3546,9 +3614,12 @@
       </c>
       <c r="AC15" s="19"/>
       <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AE15" s="98">
+        <v>85.75</v>
+      </c>
+      <c r="AF15" s="19"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
@@ -3589,9 +3660,12 @@
       </c>
       <c r="AC16" s="58"/>
       <c r="AD16" s="66"/>
-      <c r="AE16" s="34"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AE16" s="95">
+        <v>74.045000000000002</v>
+      </c>
+      <c r="AF16" s="34"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="14" t="s">
         <v>55</v>
       </c>
@@ -3628,9 +3702,10 @@
       <c r="AB17" s="54"/>
       <c r="AC17" s="58"/>
       <c r="AD17" s="66"/>
-      <c r="AE17" s="34"/>
-    </row>
-    <row r="18" spans="1:31" ht="16" thickBot="1">
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="34"/>
+    </row>
+    <row r="18" spans="1:32" ht="16" thickBot="1">
       <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
@@ -3671,9 +3746,12 @@
       </c>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-    </row>
-    <row r="19" spans="1:31" ht="16" thickBot="1">
+      <c r="AE18" s="17">
+        <v>91.869</v>
+      </c>
+      <c r="AF18" s="17"/>
+    </row>
+    <row r="19" spans="1:32" ht="16" thickBot="1">
       <c r="A19" s="23" t="s">
         <v>63</v>
       </c>
@@ -3717,8 +3795,9 @@
       <c r="AC19" s="21"/>
       <c r="AD19" s="21"/>
       <c r="AE19" s="21"/>
-    </row>
-    <row r="20" spans="1:31" s="7" customFormat="1" ht="16" thickBot="1">
+      <c r="AF19" s="21"/>
+    </row>
+    <row r="20" spans="1:32" s="7" customFormat="1" ht="16" thickBot="1">
       <c r="A20" s="23" t="s">
         <v>99</v>
       </c>
@@ -3747,9 +3826,10 @@
       <c r="AD20" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="AE20" s="21"/>
-    </row>
-    <row r="21" spans="1:31" ht="81" thickBot="1">
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="21"/>
+    </row>
+    <row r="21" spans="1:32" ht="81" thickBot="1">
       <c r="A21" s="28" t="s">
         <v>101</v>
       </c>
@@ -3796,9 +3876,10 @@
       <c r="AD21" s="86" t="s">
         <v>253</v>
       </c>
-      <c r="AE21" s="25"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="25"/>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="18" t="s">
         <v>53</v>
       </c>
@@ -3843,9 +3924,10 @@
       <c r="AD22" s="19">
         <v>76.180000000000007</v>
       </c>
-      <c r="AE22" s="19"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="19"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="14" t="s">
         <v>9</v>
       </c>
@@ -3892,9 +3974,10 @@
       <c r="AD23" s="66">
         <v>68.825000000000003</v>
       </c>
-      <c r="AE23" s="34"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="34"/>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="14" t="s">
         <v>55</v>
       </c>
@@ -3936,9 +4019,10 @@
       <c r="AD24" s="66">
         <v>17.382999999999999</v>
       </c>
-      <c r="AE24" s="34"/>
-    </row>
-    <row r="25" spans="1:31" ht="16" thickBot="1">
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="34"/>
+    </row>
+    <row r="25" spans="1:32" ht="16" thickBot="1">
       <c r="A25" s="14" t="s">
         <v>56</v>
       </c>
@@ -3983,9 +4067,10 @@
       <c r="AD25" s="17">
         <v>20.321999999999999</v>
       </c>
-      <c r="AE25" s="34"/>
-    </row>
-    <row r="26" spans="1:31" ht="16" thickBot="1">
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="34"/>
+    </row>
+    <row r="26" spans="1:32" ht="16" thickBot="1">
       <c r="A26" s="23" t="s">
         <v>63</v>
       </c>
@@ -4031,8 +4116,9 @@
         <v>256</v>
       </c>
       <c r="AE26" s="71"/>
-    </row>
-    <row r="27" spans="1:31" ht="81" thickBot="1">
+      <c r="AF26" s="71"/>
+    </row>
+    <row r="27" spans="1:32" ht="81" thickBot="1">
       <c r="A27" s="23" t="s">
         <v>99</v>
       </c>
@@ -4077,9 +4163,10 @@
       <c r="AD27" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="AE27" s="21"/>
-    </row>
-    <row r="28" spans="1:31" ht="17" thickBot="1">
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="21"/>
+    </row>
+    <row r="28" spans="1:32" ht="17" thickBot="1">
       <c r="A28" s="28" t="s">
         <v>101</v>
       </c>
@@ -4118,9 +4205,10 @@
       <c r="AD28" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="AE28" s="83"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AE28" s="68"/>
+      <c r="AF28" s="83"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="18" t="s">
         <v>53</v>
       </c>
@@ -4161,9 +4249,10 @@
       <c r="AD29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AE29" s="80"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="80"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="29" t="s">
         <v>9</v>
       </c>
@@ -4203,9 +4292,10 @@
       <c r="AD30" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="AE30" s="62"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="62"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="29" t="s">
         <v>55</v>
       </c>
@@ -4244,9 +4334,10 @@
       <c r="AD31" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="AE31" s="34"/>
-    </row>
-    <row r="32" spans="1:31" ht="16" thickBot="1">
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="34"/>
+    </row>
+    <row r="32" spans="1:32" ht="16" thickBot="1">
       <c r="A32" s="29" t="s">
         <v>56</v>
       </c>
@@ -4287,9 +4378,10 @@
       <c r="AD32" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AE32" s="34"/>
-    </row>
-    <row r="33" spans="1:31" ht="16" thickBot="1">
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="34"/>
+    </row>
+    <row r="33" spans="1:32" ht="16" thickBot="1">
       <c r="A33" s="23" t="s">
         <v>63</v>
       </c>
@@ -4333,8 +4425,9 @@
         <v>258</v>
       </c>
       <c r="AE33" s="71"/>
-    </row>
-    <row r="34" spans="1:31" ht="16" thickBot="1">
+      <c r="AF33" s="71"/>
+    </row>
+    <row r="34" spans="1:32" ht="16" thickBot="1">
       <c r="A34" s="23" t="s">
         <v>99</v>
       </c>
@@ -4370,9 +4463,9 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AE34" s="21"/>
-    </row>
-    <row r="35" spans="1:31" ht="81" thickBot="1">
+      <c r="AF34" s="21"/>
+    </row>
+    <row r="35" spans="1:32" ht="81" thickBot="1">
       <c r="A35" s="28" t="s">
         <v>101</v>
       </c>
@@ -4417,9 +4510,10 @@
       <c r="AD35" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="AE35" s="75"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="75"/>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="18" t="s">
         <v>8</v>
       </c>
@@ -4458,9 +4552,10 @@
       </c>
       <c r="AC36" s="19"/>
       <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AE36" s="96"/>
+      <c r="AF36" s="19"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="31" t="s">
         <v>9</v>
       </c>
@@ -4501,9 +4596,10 @@
         <v>78.516999999999996</v>
       </c>
       <c r="AD37" s="19"/>
-      <c r="AE37" s="34"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AE37" s="96"/>
+      <c r="AF37" s="34"/>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" s="31" t="s">
         <v>55</v>
       </c>
@@ -4540,9 +4636,10 @@
       <c r="AB38" s="78"/>
       <c r="AC38" s="58"/>
       <c r="AD38" s="66"/>
-      <c r="AE38" s="34"/>
-    </row>
-    <row r="39" spans="1:31" ht="16" thickBot="1">
+      <c r="AE38" s="95"/>
+      <c r="AF38" s="34"/>
+    </row>
+    <row r="39" spans="1:32" ht="16" thickBot="1">
       <c r="A39" s="31" t="s">
         <v>56</v>
       </c>
@@ -4582,8 +4679,9 @@
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
       <c r="AE39" s="17"/>
-    </row>
-    <row r="40" spans="1:31" ht="16" thickBot="1">
+      <c r="AF39" s="17"/>
+    </row>
+    <row r="40" spans="1:32" ht="16" thickBot="1">
       <c r="A40" s="23" t="s">
         <v>63</v>
       </c>
@@ -4640,8 +4738,9 @@
         <v>260</v>
       </c>
       <c r="AE40" s="71"/>
-    </row>
-    <row r="41" spans="1:31" ht="65" thickBot="1">
+      <c r="AF40" s="71"/>
+    </row>
+    <row r="41" spans="1:32" ht="65" thickBot="1">
       <c r="A41" s="23" t="s">
         <v>99</v>
       </c>
@@ -4696,9 +4795,10 @@
       <c r="AD41" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="AE41" s="68"/>
-    </row>
-    <row r="42" spans="1:31" ht="17" thickBot="1">
+      <c r="AE41" s="100"/>
+      <c r="AF41" s="68"/>
+    </row>
+    <row r="42" spans="1:32" ht="17" thickBot="1">
       <c r="A42" s="28" t="s">
         <v>101</v>
       </c>
@@ -4751,9 +4851,10 @@
       </c>
       <c r="AC42" s="70"/>
       <c r="AD42" s="87"/>
-      <c r="AE42" s="69"/>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="AE42" s="75"/>
+      <c r="AF42" s="69"/>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
@@ -4806,9 +4907,10 @@
         <v>67.543000000000006</v>
       </c>
       <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AE43" s="96"/>
+      <c r="AF43" s="19"/>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" s="31" t="s">
         <v>9</v>
       </c>
@@ -4857,9 +4959,10 @@
       <c r="AB44" s="64"/>
       <c r="AC44" s="60"/>
       <c r="AD44" s="66"/>
-      <c r="AE44" s="34"/>
-    </row>
-    <row r="45" spans="1:31" ht="16" thickBot="1">
+      <c r="AE44" s="95"/>
+      <c r="AF44" s="34"/>
+    </row>
+    <row r="45" spans="1:32" ht="16" thickBot="1">
       <c r="A45" s="31" t="s">
         <v>55</v>
       </c>
@@ -4910,9 +5013,10 @@
       </c>
       <c r="AC45" s="60"/>
       <c r="AD45" s="66"/>
-      <c r="AE45" s="34"/>
-    </row>
-    <row r="46" spans="1:31" ht="16" thickBot="1">
+      <c r="AE45" s="95"/>
+      <c r="AF45" s="34"/>
+    </row>
+    <row r="46" spans="1:32" ht="16" thickBot="1">
       <c r="A46" s="31" t="s">
         <v>56</v>
       </c>
@@ -4975,9 +5079,10 @@
       <c r="AD46" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="AE46" s="34"/>
-    </row>
-    <row r="47" spans="1:31" ht="65" thickBot="1">
+      <c r="AE46" s="101"/>
+      <c r="AF46" s="34"/>
+    </row>
+    <row r="47" spans="1:32" ht="65" thickBot="1">
       <c r="A47" s="28" t="s">
         <v>143</v>
       </c>
@@ -5048,9 +5153,10 @@
       <c r="AD47" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="AE47" s="77"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AE47" s="102"/>
+      <c r="AF47" s="77"/>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" s="18" t="s">
         <v>8</v>
       </c>
@@ -5119,9 +5225,10 @@
       <c r="AD48" s="88">
         <v>78.646000000000001</v>
       </c>
-      <c r="AE48" s="19"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="AE48" s="88"/>
+      <c r="AF48" s="19"/>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="41" t="s">
         <v>9</v>
       </c>
@@ -5188,9 +5295,10 @@
       <c r="AD49" s="8">
         <v>62.491</v>
       </c>
-      <c r="AE49" s="42"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="42"/>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="41" t="s">
         <v>55</v>
       </c>
@@ -5249,9 +5357,10 @@
       <c r="AD50" s="85">
         <v>19.407</v>
       </c>
-      <c r="AE50" s="42"/>
-    </row>
-    <row r="51" spans="1:31" ht="16" thickBot="1">
+      <c r="AE50" s="95"/>
+      <c r="AF50" s="42"/>
+    </row>
+    <row r="51" spans="1:32" ht="16" thickBot="1">
       <c r="A51" s="41" t="s">
         <v>56</v>
       </c>
@@ -5316,9 +5425,10 @@
       <c r="AD51" s="66">
         <v>19.809000000000001</v>
       </c>
-      <c r="AE51" s="42"/>
-    </row>
-    <row r="52" spans="1:31" ht="16" thickBot="1">
+      <c r="AE51" s="95"/>
+      <c r="AF51" s="42"/>
+    </row>
+    <row r="52" spans="1:32" ht="16" thickBot="1">
       <c r="A52" s="23" t="s">
         <v>63</v>
       </c>
@@ -5367,9 +5477,10 @@
       <c r="AD52" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="AE52" s="21"/>
-    </row>
-    <row r="53" spans="1:31" ht="81" thickBot="1">
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="21"/>
+    </row>
+    <row r="53" spans="1:32" ht="81" thickBot="1">
       <c r="A53" s="28" t="s">
         <v>143</v>
       </c>
@@ -5419,8 +5530,9 @@
         <v>265</v>
       </c>
       <c r="AE53" s="25"/>
-    </row>
-    <row r="54" spans="1:31" ht="16">
+      <c r="AF53" s="25"/>
+    </row>
+    <row r="54" spans="1:32" ht="16">
       <c r="A54" s="18" t="s">
         <v>8</v>
       </c>
@@ -5467,9 +5579,10 @@
       <c r="AD54" s="90">
         <v>77.063000000000002</v>
       </c>
-      <c r="AE54" s="19"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="AE54" s="90"/>
+      <c r="AF54" s="19"/>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" s="51" t="s">
         <v>9</v>
       </c>
@@ -5516,9 +5629,10 @@
       <c r="AD55" s="66">
         <v>63.548999999999999</v>
       </c>
-      <c r="AE55" s="52"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="AE55" s="95"/>
+      <c r="AF55" s="52"/>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" s="51" t="s">
         <v>55</v>
       </c>
@@ -5554,9 +5668,10 @@
       <c r="AA56" s="54"/>
       <c r="AC56" s="56"/>
       <c r="AD56" s="56"/>
-      <c r="AE56" s="52"/>
-    </row>
-    <row r="57" spans="1:31" ht="16" thickBot="1">
+      <c r="AE56" s="56"/>
+      <c r="AF56" s="52"/>
+    </row>
+    <row r="57" spans="1:32" ht="16" thickBot="1">
       <c r="A57" s="51" t="s">
         <v>56</v>
       </c>
@@ -5599,9 +5714,10 @@
       <c r="AD57" s="19">
         <v>89.183999999999997</v>
       </c>
-      <c r="AE57" s="52"/>
-    </row>
-    <row r="58" spans="1:31" ht="16" thickBot="1">
+      <c r="AE57" s="96"/>
+      <c r="AF57" s="52"/>
+    </row>
+    <row r="58" spans="1:32" ht="16" thickBot="1">
       <c r="A58" s="23" t="s">
         <v>63</v>
       </c>
@@ -5650,9 +5766,10 @@
       <c r="AD58" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="AE58" s="21"/>
-    </row>
-    <row r="59" spans="1:31" ht="97" thickBot="1">
+      <c r="AE58" s="46"/>
+      <c r="AF58" s="21"/>
+    </row>
+    <row r="59" spans="1:32" ht="97" thickBot="1">
       <c r="A59" s="28" t="s">
         <v>143</v>
       </c>
@@ -5702,8 +5819,9 @@
         <v>266</v>
       </c>
       <c r="AE59" s="25"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="AF59" s="25"/>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="18" t="s">
         <v>8</v>
       </c>
@@ -5747,9 +5865,10 @@
       <c r="AD60" s="19">
         <v>79.391999999999996</v>
       </c>
-      <c r="AE60" s="19"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="AE60" s="96"/>
+      <c r="AF60" s="19"/>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="48" t="s">
         <v>9</v>
       </c>
@@ -5796,9 +5915,10 @@
       <c r="AD61" s="66">
         <v>66.406999999999996</v>
       </c>
-      <c r="AE61" s="49"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="AE61" s="95"/>
+      <c r="AF61" s="49"/>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="48" t="s">
         <v>55</v>
       </c>
@@ -5837,9 +5957,10 @@
       </c>
       <c r="AC62" s="56"/>
       <c r="AD62" s="56"/>
-      <c r="AE62" s="49"/>
-    </row>
-    <row r="63" spans="1:31" ht="16" thickBot="1">
+      <c r="AE62" s="56"/>
+      <c r="AF62" s="49"/>
+    </row>
+    <row r="63" spans="1:32" ht="16" thickBot="1">
       <c r="A63" s="48" t="s">
         <v>56</v>
       </c>
@@ -5882,9 +6003,10 @@
       <c r="AD63" s="66">
         <v>89.391000000000005</v>
       </c>
-      <c r="AE63" s="49"/>
-    </row>
-    <row r="64" spans="1:31" ht="16" thickBot="1">
+      <c r="AE63" s="95"/>
+      <c r="AF63" s="49"/>
+    </row>
+    <row r="64" spans="1:32" ht="16" thickBot="1">
       <c r="A64" s="23" t="s">
         <v>63</v>
       </c>
@@ -5921,9 +6043,10 @@
       <c r="AB64" s="46"/>
       <c r="AC64" s="46"/>
       <c r="AD64" s="46"/>
-      <c r="AE64" s="21"/>
-    </row>
-    <row r="65" spans="1:31" ht="49" thickBot="1">
+      <c r="AE64" s="46"/>
+      <c r="AF64" s="21"/>
+    </row>
+    <row r="65" spans="1:32" ht="49" thickBot="1">
       <c r="A65" s="28" t="s">
         <v>143</v>
       </c>
@@ -5961,8 +6084,9 @@
       <c r="AC65" s="25"/>
       <c r="AD65" s="25"/>
       <c r="AE65" s="25"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="AF65" s="25"/>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" s="18" t="s">
         <v>8</v>
       </c>
@@ -5999,9 +6123,10 @@
       <c r="AB66" s="62"/>
       <c r="AC66" s="19"/>
       <c r="AD66" s="19"/>
-      <c r="AE66" s="19"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="AE66" s="96"/>
+      <c r="AF66" s="19"/>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" s="61" t="s">
         <v>9</v>
       </c>
@@ -6038,9 +6163,10 @@
       <c r="AB67" s="62"/>
       <c r="AC67" s="62"/>
       <c r="AD67" s="66"/>
-      <c r="AE67" s="62"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="AE67" s="95"/>
+      <c r="AF67" s="62"/>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" s="61" t="s">
         <v>55</v>
       </c>
@@ -6075,9 +6201,10 @@
       <c r="AB68" s="56"/>
       <c r="AC68" s="56"/>
       <c r="AD68" s="56"/>
-      <c r="AE68" s="62"/>
-    </row>
-    <row r="69" spans="1:31" ht="16" thickBot="1">
+      <c r="AE68" s="56"/>
+      <c r="AF68" s="62"/>
+    </row>
+    <row r="69" spans="1:32" ht="16" thickBot="1">
       <c r="A69" s="61" t="s">
         <v>56</v>
       </c>
@@ -6114,9 +6241,10 @@
       <c r="AB69" s="62"/>
       <c r="AC69" s="62"/>
       <c r="AD69" s="66"/>
-      <c r="AE69" s="62"/>
-    </row>
-    <row r="70" spans="1:31" ht="16" thickBot="1">
+      <c r="AE69" s="95"/>
+      <c r="AF69" s="62"/>
+    </row>
+    <row r="70" spans="1:32" ht="16" thickBot="1">
       <c r="A70" s="23" t="s">
         <v>63</v>
       </c>
@@ -6155,9 +6283,10 @@
       <c r="AB70" s="46"/>
       <c r="AC70" s="46"/>
       <c r="AD70" s="46"/>
-      <c r="AE70" s="21"/>
-    </row>
-    <row r="71" spans="1:31" ht="49" thickBot="1">
+      <c r="AE70" s="46"/>
+      <c r="AF70" s="21"/>
+    </row>
+    <row r="71" spans="1:32" ht="49" thickBot="1">
       <c r="A71" s="28" t="s">
         <v>143</v>
       </c>
@@ -6197,8 +6326,9 @@
       <c r="AC71" s="25"/>
       <c r="AD71" s="25"/>
       <c r="AE71" s="25"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="AF71" s="25"/>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" s="18" t="s">
         <v>8</v>
       </c>
@@ -6237,9 +6367,10 @@
       <c r="AB72" s="66"/>
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
-      <c r="AE72" s="19"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="AE72" s="96"/>
+      <c r="AF72" s="19"/>
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" s="65" t="s">
         <v>9</v>
       </c>
@@ -6278,9 +6409,10 @@
       <c r="AB73" s="66"/>
       <c r="AC73" s="66"/>
       <c r="AD73" s="66"/>
-      <c r="AE73" s="66"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="AE73" s="95"/>
+      <c r="AF73" s="66"/>
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" s="65" t="s">
         <v>55</v>
       </c>
@@ -6314,9 +6446,10 @@
       <c r="AB74" s="56"/>
       <c r="AC74" s="56"/>
       <c r="AD74" s="56"/>
-      <c r="AE74" s="66"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="AE74" s="56"/>
+      <c r="AF74" s="66"/>
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" s="65" t="s">
         <v>56</v>
       </c>
@@ -6355,47 +6488,48 @@
       <c r="AB75" s="66"/>
       <c r="AC75" s="66"/>
       <c r="AD75" s="66"/>
-      <c r="AE75" s="66"/>
-    </row>
-    <row r="77" spans="1:31">
-      <c r="B77" s="108" t="s">
+      <c r="AE75" s="95"/>
+      <c r="AF75" s="66"/>
+    </row>
+    <row r="77" spans="1:32">
+      <c r="B77" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="C77" s="108"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="108"/>
-      <c r="G77" s="108"/>
-      <c r="H77" s="108"/>
-    </row>
-    <row r="78" spans="1:31" ht="192" customHeight="1">
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="116"/>
+      <c r="H77" s="116"/>
+    </row>
+    <row r="78" spans="1:32" ht="192" customHeight="1">
       <c r="A78" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="103" t="s">
+      <c r="B78" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
-      <c r="K78" s="103"/>
-      <c r="L78" s="103"/>
-      <c r="M78" s="103"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="111"/>
+      <c r="F78" s="111"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="111"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="111"/>
+      <c r="M78" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B78:M78"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="B7:AE7"/>
-    <mergeCell ref="B14:AE14"/>
-    <mergeCell ref="B3:AE3"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="B7:AF7"/>
+    <mergeCell ref="B14:AF14"/>
+    <mergeCell ref="B3:AF3"/>
     <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="B2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
